--- a/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
+++ b/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="121">
   <si>
     <t>Sequenz</t>
   </si>
@@ -486,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -890,11 +890,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -927,9 +955,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,9 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1037,6 +1059,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1309,7 +1343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1320,10 +1354,10 @@
   <dimension ref="A1:U602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E108" sqref="E108:G108"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1346,7 +1380,7 @@
     <col min="17" max="17" width="14.54296875" customWidth="1"/>
     <col min="18" max="18" width="11.6328125" customWidth="1"/>
     <col min="19" max="19" width="11.26953125" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="70" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="68" customWidth="1"/>
     <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.90625" customWidth="1"/>
     <col min="23" max="23" width="13.81640625" customWidth="1"/>
@@ -1356,120 +1390,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="77" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="71" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="78" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="31" t="s">
+      <c r="J3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="63" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1479,8 +1513,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="15">
         <v>0</v>
       </c>
@@ -1489,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="15" t="s">
@@ -1499,21 +1533,21 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>102</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="66"/>
+      <c r="T4" s="64"/>
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="H5" s="22">
         <v>1</v>
       </c>
@@ -1522,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="22"/>
-      <c r="L5" s="26"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="22" t="s">
         <v>104</v>
       </c>
@@ -1534,7 +1568,7 @@
         <v>105</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="67"/>
+      <c r="T5" s="65"/>
     </row>
     <row r="6" spans="1:20" ht="72.5">
       <c r="A6" s="4">
@@ -1552,7 +1586,7 @@
       <c r="E6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="3"/>
@@ -1578,13 +1612,13 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S6" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="65">
         <v>1</v>
       </c>
     </row>
@@ -1601,13 +1635,13 @@
       <c r="D7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1620,23 +1654,25 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="65"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="82">
+        <v>3</v>
+      </c>
       <c r="C8" s="19">
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="52" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="20">
@@ -1654,7 +1690,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="65"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="23"/>
@@ -1683,7 +1719,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="65"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="23"/>
@@ -1704,7 +1740,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="67"/>
+      <c r="T10" s="65"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1">
       <c r="A11" s="23"/>
@@ -1725,7 +1761,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="67"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="1:20" ht="72.5">
       <c r="A12" s="4">
@@ -1743,7 +1779,7 @@
       <c r="E12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="3"/>
@@ -1754,10 +1790,10 @@
         <v>76</v>
       </c>
       <c r="J12" s="22"/>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="22" t="s">
@@ -1769,13 +1805,13 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="26" t="s">
+      <c r="R12" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="67">
+      <c r="T12" s="65">
         <v>1</v>
       </c>
     </row>
@@ -1792,18 +1828,18 @@
       <c r="D13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
@@ -1811,33 +1847,35 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
-      <c r="T13" s="67"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="39">
-        <v>1</v>
-      </c>
-      <c r="B14" s="24"/>
+      <c r="A14" s="37">
+        <v>1</v>
+      </c>
+      <c r="B14" s="80">
+        <v>3</v>
+      </c>
       <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>23255</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
@@ -1845,13 +1883,15 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="67"/>
+      <c r="T14" s="65"/>
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1">
       <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
@@ -1861,7 +1901,7 @@
       <c r="E15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="54" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="14">
@@ -1870,8 +1910,8 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
@@ -1879,7 +1919,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="67"/>
+      <c r="T15" s="65"/>
     </row>
     <row r="16" spans="1:20" ht="72.5">
       <c r="A16" s="23"/>
@@ -1895,10 +1935,10 @@
         <v>77</v>
       </c>
       <c r="J16" s="22"/>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>11</v>
       </c>
       <c r="M16" s="22"/>
@@ -1908,7 +1948,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="67"/>
+      <c r="T16" s="65"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="23"/>
@@ -1920,8 +1960,8 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -1929,7 +1969,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="67"/>
+      <c r="T17" s="65"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="23"/>
@@ -1941,8 +1981,8 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -1950,7 +1990,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="67"/>
+      <c r="T18" s="65"/>
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1">
       <c r="A19" s="23"/>
@@ -1962,8 +2002,8 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -1971,7 +2011,7 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="67"/>
+      <c r="T19" s="65"/>
     </row>
     <row r="20" spans="1:20" ht="72.5">
       <c r="A20" s="4">
@@ -1989,7 +2029,7 @@
       <c r="E20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G20" s="3"/>
@@ -2003,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="K20" s="22"/>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>13</v>
       </c>
       <c r="M20" s="22" t="s">
@@ -2015,41 +2055,41 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T20" s="67">
+      <c r="T20" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>2</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="42">
         <v>2</v>
       </c>
-      <c r="C21" s="42">
-        <v>1</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="40">
+        <v>1</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-      <c r="L21" s="26"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -2057,33 +2097,35 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="67"/>
+      <c r="T21" s="65"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="39">
-        <v>1</v>
-      </c>
-      <c r="B22" s="24"/>
+      <c r="A22" s="37">
+        <v>1</v>
+      </c>
+      <c r="B22" s="80">
+        <v>3</v>
+      </c>
       <c r="C22" s="21">
         <v>1</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <v>23255</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-      <c r="L22" s="26"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
@@ -2091,13 +2133,15 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
-      <c r="T22" s="67"/>
+      <c r="T22" s="65"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="80">
+        <v>3</v>
+      </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
@@ -2107,7 +2151,7 @@
       <c r="E23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="9">
@@ -2117,7 +2161,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="26"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
@@ -2125,13 +2169,15 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="67"/>
+      <c r="T23" s="65"/>
     </row>
     <row r="24" spans="1:20" ht="29.5" thickBot="1">
       <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="80">
+        <v>3</v>
+      </c>
       <c r="C24" s="12">
         <v>8</v>
       </c>
@@ -2141,7 +2187,7 @@
       <c r="E24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="14">
@@ -2151,7 +2197,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
@@ -2159,7 +2205,7 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
-      <c r="T24" s="67"/>
+      <c r="T24" s="65"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="23"/>
@@ -2172,7 +2218,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="26"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
@@ -2180,7 +2226,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="67"/>
+      <c r="T25" s="65"/>
     </row>
     <row r="26" spans="1:20" ht="29">
       <c r="A26" s="23"/>
@@ -2199,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="25" t="s">
         <v>15</v>
       </c>
       <c r="M26" s="22"/>
@@ -2209,7 +2255,7 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="67"/>
+      <c r="T26" s="65"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="23"/>
@@ -2222,7 +2268,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="26"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -2230,7 +2276,7 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
-      <c r="T27" s="67"/>
+      <c r="T27" s="65"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="23"/>
@@ -2243,7 +2289,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="26"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
@@ -2251,7 +2297,7 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="67"/>
+      <c r="T28" s="65"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="23"/>
@@ -2264,7 +2310,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="26"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
@@ -2272,7 +2318,7 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="67"/>
+      <c r="T29" s="65"/>
     </row>
     <row r="30" spans="1:20" ht="15" thickBot="1">
       <c r="A30" s="23"/>
@@ -2285,7 +2331,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="26"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -2293,7 +2339,7 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="67"/>
+      <c r="T30" s="65"/>
     </row>
     <row r="31" spans="1:20" ht="72.5">
       <c r="A31" s="4">
@@ -2311,7 +2357,7 @@
       <c r="E31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="3"/>
@@ -2325,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="22"/>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="22" t="s">
@@ -2337,41 +2383,41 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
-      <c r="R31" s="26" t="s">
+      <c r="R31" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T31" s="67">
+      <c r="T31" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1">
-      <c r="A32" s="43">
+      <c r="A32" s="41">
         <v>2</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="42">
         <v>2</v>
       </c>
-      <c r="C32" s="42">
-        <v>1</v>
-      </c>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="40">
+        <v>1</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -2379,33 +2425,35 @@
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="67"/>
+      <c r="T32" s="65"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="39">
-        <v>1</v>
-      </c>
-      <c r="B33" s="24"/>
+      <c r="A33" s="37">
+        <v>1</v>
+      </c>
+      <c r="B33" s="80">
+        <v>3</v>
+      </c>
       <c r="C33" s="21">
         <v>1</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="39">
         <v>23255</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-      <c r="L33" s="26"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -2413,13 +2461,15 @@
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="67"/>
+      <c r="T33" s="65"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="80">
+        <v>3</v>
+      </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
@@ -2429,7 +2479,7 @@
       <c r="E34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="9">
@@ -2439,7 +2489,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="26"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -2447,13 +2497,15 @@
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="67"/>
+      <c r="T34" s="65"/>
     </row>
     <row r="35" spans="1:20" ht="29.5" thickBot="1">
       <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="80">
+        <v>3</v>
+      </c>
       <c r="C35" s="12">
         <v>8</v>
       </c>
@@ -2463,7 +2515,7 @@
       <c r="E35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G35" s="14">
@@ -2473,7 +2525,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="26"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -2481,7 +2533,7 @@
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="67"/>
+      <c r="T35" s="65"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="23"/>
@@ -2494,7 +2546,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="26"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -2502,7 +2554,7 @@
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="67"/>
+      <c r="T36" s="65"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="23"/>
@@ -2515,7 +2567,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="26"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -2523,7 +2575,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
-      <c r="T37" s="67"/>
+      <c r="T37" s="65"/>
     </row>
     <row r="38" spans="1:20" ht="29">
       <c r="A38" s="23"/>
@@ -2542,7 +2594,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="25" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="22"/>
@@ -2552,7 +2604,7 @@
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
-      <c r="T38" s="67"/>
+      <c r="T38" s="65"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="23"/>
@@ -2565,7 +2617,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="26"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -2573,7 +2625,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="65"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="23"/>
@@ -2586,7 +2638,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="26"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -2594,7 +2646,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="67"/>
+      <c r="T40" s="65"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="23"/>
@@ -2607,7 +2659,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="26"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -2615,7 +2667,7 @@
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
-      <c r="T41" s="67"/>
+      <c r="T41" s="65"/>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1">
       <c r="A42" s="23"/>
@@ -2628,7 +2680,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="26"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -2636,7 +2688,7 @@
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
-      <c r="T42" s="67"/>
+      <c r="T42" s="65"/>
     </row>
     <row r="43" spans="1:20" ht="58">
       <c r="A43" s="4">
@@ -2654,7 +2706,7 @@
       <c r="E43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G43" s="3"/>
@@ -2684,72 +2736,74 @@
       <c r="Q43" s="22">
         <v>1.8</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="R43" s="25" t="s">
         <v>108</v>
       </c>
       <c r="S43" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T43" s="67"/>
+      <c r="T43" s="65"/>
     </row>
     <row r="44" spans="1:20" ht="29.5" thickBot="1">
-      <c r="A44" s="43">
+      <c r="A44" s="41">
         <v>2</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="42">
         <v>2</v>
       </c>
-      <c r="C44" s="42">
-        <v>1</v>
-      </c>
-      <c r="D44" s="42" t="s">
+      <c r="C44" s="40">
+        <v>1</v>
+      </c>
+      <c r="D44" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="F44" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="45"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>110</v>
       </c>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
-      <c r="R44" s="26" t="s">
+      <c r="R44" s="25" t="s">
         <v>111</v>
       </c>
       <c r="S44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T44" s="67"/>
+      <c r="T44" s="65"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="39">
-        <v>1</v>
-      </c>
-      <c r="B45" s="24"/>
+      <c r="A45" s="37">
+        <v>1</v>
+      </c>
+      <c r="B45" s="80">
+        <v>3</v>
+      </c>
       <c r="C45" s="21">
         <v>1</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="39">
         <v>23255</v>
       </c>
       <c r="H45" s="22"/>
@@ -2764,13 +2818,15 @@
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
-      <c r="T45" s="67"/>
+      <c r="T45" s="65"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="80">
+        <v>3</v>
+      </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
@@ -2780,7 +2836,7 @@
       <c r="E46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="9">
@@ -2798,13 +2854,15 @@
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
-      <c r="T46" s="67"/>
+      <c r="T46" s="65"/>
     </row>
     <row r="47" spans="1:20" ht="29.5" thickBot="1">
       <c r="A47" s="10">
         <v>3</v>
       </c>
-      <c r="B47" s="11"/>
+      <c r="B47" s="80">
+        <v>3</v>
+      </c>
       <c r="C47" s="12">
         <v>8</v>
       </c>
@@ -2814,7 +2872,7 @@
       <c r="E47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="54" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="14">
@@ -2832,7 +2890,7 @@
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
-      <c r="T47" s="67"/>
+      <c r="T47" s="65"/>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="23"/>
@@ -2861,7 +2919,7 @@
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
-      <c r="T48" s="67"/>
+      <c r="T48" s="65"/>
     </row>
     <row r="49" spans="1:20" ht="72.5">
       <c r="A49" s="4">
@@ -2879,7 +2937,7 @@
       <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="3"/>
@@ -2890,10 +2948,10 @@
         <v>76</v>
       </c>
       <c r="J49" s="22"/>
-      <c r="K49" s="26" t="s">
+      <c r="K49" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L49" s="25" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="22" t="s">
@@ -2905,13 +2963,13 @@
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
-      <c r="R49" s="26" t="s">
+      <c r="R49" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S49" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T49" s="67">
+      <c r="T49" s="65">
         <v>1</v>
       </c>
     </row>
@@ -2931,15 +2989,15 @@
       <c r="E50" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -2947,25 +3005,33 @@
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
-      <c r="T50" s="67"/>
+      <c r="T50" s="65"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42" t="s">
+      <c r="A51" s="41">
+        <v>3</v>
+      </c>
+      <c r="B51" s="42">
+        <v>2</v>
+      </c>
+      <c r="C51" s="83">
+        <v>1</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="F51" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="45"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -2973,27 +3039,35 @@
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
-      <c r="T51" s="67"/>
+      <c r="T51" s="65"/>
     </row>
     <row r="52" spans="1:20" ht="15" thickBot="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
+      <c r="A52" s="18">
+        <v>1</v>
+      </c>
+      <c r="B52" s="19">
+        <v>3</v>
+      </c>
+      <c r="C52" s="85">
+        <v>1</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="44">
         <v>11322</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -3001,7 +3075,7 @@
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
-      <c r="T52" s="67"/>
+      <c r="T52" s="65"/>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1">
       <c r="A53" s="23"/>
@@ -3013,8 +3087,8 @@
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -3022,7 +3096,7 @@
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
-      <c r="T53" s="67"/>
+      <c r="T53" s="65"/>
     </row>
     <row r="54" spans="1:20" ht="72.5">
       <c r="A54" s="4">
@@ -3040,7 +3114,7 @@
       <c r="E54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G54" s="3"/>
@@ -3054,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="K54" s="22"/>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="25" t="s">
         <v>24</v>
       </c>
       <c r="M54" s="22" t="s">
@@ -3066,13 +3140,13 @@
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
-      <c r="R54" s="26" t="s">
+      <c r="R54" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S54" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T54" s="67">
+      <c r="T54" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3092,7 +3166,7 @@
       <c r="E55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="59" t="s">
+      <c r="F55" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="8"/>
@@ -3100,7 +3174,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
-      <c r="L55" s="26"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -3108,29 +3182,33 @@
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
-      <c r="T55" s="67"/>
+      <c r="T55" s="65"/>
     </row>
     <row r="56" spans="1:20" ht="15" thickBot="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42">
-        <v>1</v>
-      </c>
-      <c r="D56" s="42" t="s">
+      <c r="A56" s="41">
+        <v>3</v>
+      </c>
+      <c r="B56" s="42">
+        <v>2</v>
+      </c>
+      <c r="C56" s="40">
+        <v>1</v>
+      </c>
+      <c r="D56" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="F56" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="43"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
-      <c r="L56" s="26"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -3138,11 +3216,15 @@
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
-      <c r="T56" s="67"/>
+      <c r="T56" s="65"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="39"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="37">
+        <v>1</v>
+      </c>
+      <c r="B57" s="21">
+        <v>3</v>
+      </c>
       <c r="C57" s="21">
         <v>1</v>
       </c>
@@ -3152,17 +3234,17 @@
       <c r="E57" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="61" t="s">
+      <c r="F57" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="47">
+      <c r="G57" s="45">
         <v>11322</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
-      <c r="L57" s="26"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
@@ -3170,12 +3252,16 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
-      <c r="T57" s="67"/>
+      <c r="T57" s="65"/>
     </row>
     <row r="58" spans="1:20" ht="15" thickBot="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="34">
+      <c r="A58" s="10">
+        <v>2</v>
+      </c>
+      <c r="B58" s="12">
+        <v>3</v>
+      </c>
+      <c r="C58" s="33">
         <v>6</v>
       </c>
       <c r="D58" s="12" t="s">
@@ -3184,7 +3270,7 @@
       <c r="E58" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="62" t="s">
+      <c r="F58" s="60" t="s">
         <v>69</v>
       </c>
       <c r="G58" s="14">
@@ -3194,7 +3280,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
-      <c r="L58" s="26"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
@@ -3202,7 +3288,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
-      <c r="T58" s="67"/>
+      <c r="T58" s="65"/>
     </row>
     <row r="59" spans="1:20" ht="15" thickBot="1">
       <c r="A59" s="23"/>
@@ -3215,7 +3301,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
-      <c r="L59" s="26"/>
+      <c r="L59" s="25"/>
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
@@ -3223,7 +3309,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
-      <c r="T59" s="67"/>
+      <c r="T59" s="65"/>
     </row>
     <row r="60" spans="1:20" ht="58">
       <c r="A60" s="4">
@@ -3241,7 +3327,7 @@
       <c r="E60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="52" t="s">
+      <c r="F60" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="3"/>
@@ -3255,7 +3341,7 @@
         <v>25</v>
       </c>
       <c r="K60" s="22"/>
-      <c r="L60" s="26" t="s">
+      <c r="L60" s="25" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="22" t="s">
@@ -3271,13 +3357,13 @@
       <c r="Q60" s="22">
         <v>2.8</v>
       </c>
-      <c r="R60" s="26" t="s">
+      <c r="R60" s="25" t="s">
         <v>108</v>
       </c>
       <c r="S60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T60" s="67"/>
+      <c r="T60" s="65"/>
     </row>
     <row r="61" spans="1:20" ht="29">
       <c r="A61" s="5">
@@ -3295,7 +3381,7 @@
       <c r="E61" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G61" s="8"/>
@@ -3312,42 +3398,46 @@
       <c r="L61" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M61" s="26" t="s">
+      <c r="M61" s="25" t="s">
         <v>110</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="Q61" s="22"/>
-      <c r="R61" s="26" t="s">
+      <c r="R61" s="25" t="s">
         <v>111</v>
       </c>
       <c r="S61" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="T61" s="67"/>
+      <c r="T61" s="65"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42">
-        <v>1</v>
-      </c>
-      <c r="D62" s="42" t="s">
+      <c r="A62" s="41">
+        <v>3</v>
+      </c>
+      <c r="B62" s="40">
+        <v>2</v>
+      </c>
+      <c r="C62" s="40">
+        <v>1</v>
+      </c>
+      <c r="D62" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="F62" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G62" s="45"/>
+      <c r="G62" s="43"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="26"/>
+      <c r="L62" s="25"/>
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
@@ -3355,11 +3445,15 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
-      <c r="T62" s="67"/>
+      <c r="T62" s="65"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="39"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="37">
+        <v>1</v>
+      </c>
+      <c r="B63" s="21">
+        <v>3</v>
+      </c>
       <c r="C63" s="21">
         <v>1</v>
       </c>
@@ -3369,17 +3463,17 @@
       <c r="E63" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G63" s="45">
         <v>11322</v>
       </c>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-      <c r="L63" s="26"/>
+      <c r="L63" s="25"/>
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
@@ -3387,12 +3481,16 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
-      <c r="T63" s="67"/>
+      <c r="T63" s="65"/>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="34">
+      <c r="A64" s="10">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="33">
         <v>6</v>
       </c>
       <c r="D64" s="12" t="s">
@@ -3401,7 +3499,7 @@
       <c r="E64" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F64" s="62" t="s">
+      <c r="F64" s="60" t="s">
         <v>69</v>
       </c>
       <c r="G64" s="14">
@@ -3411,7 +3509,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
-      <c r="L64" s="26"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
@@ -3419,7 +3517,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="22"/>
-      <c r="T64" s="67"/>
+      <c r="T64" s="65"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="23"/>
@@ -3440,7 +3538,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
-      <c r="T65" s="67"/>
+      <c r="T65" s="65"/>
     </row>
     <row r="66" spans="1:20" ht="43.5">
       <c r="A66" s="23"/>
@@ -3459,7 +3557,7 @@
         <v>28</v>
       </c>
       <c r="K66" s="22"/>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="25" t="s">
         <v>29</v>
       </c>
       <c r="M66" s="22"/>
@@ -3469,7 +3567,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
-      <c r="T66" s="67"/>
+      <c r="T66" s="65"/>
     </row>
     <row r="67" spans="1:20" ht="43.5">
       <c r="A67" s="23"/>
@@ -3488,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="K67" s="22"/>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="25" t="s">
         <v>30</v>
       </c>
       <c r="M67" s="22"/>
@@ -3498,7 +3596,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
       <c r="S67" s="22"/>
-      <c r="T67" s="67"/>
+      <c r="T67" s="65"/>
     </row>
     <row r="68" spans="1:20" ht="43.5">
       <c r="A68" s="23"/>
@@ -3517,7 +3615,7 @@
         <v>28</v>
       </c>
       <c r="K68" s="22"/>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="25" t="s">
         <v>31</v>
       </c>
       <c r="M68" s="22"/>
@@ -3527,7 +3625,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
-      <c r="T68" s="67"/>
+      <c r="T68" s="65"/>
     </row>
     <row r="69" spans="1:20" ht="44" thickBot="1">
       <c r="A69" s="23"/>
@@ -3546,7 +3644,7 @@
         <v>28</v>
       </c>
       <c r="K69" s="22"/>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="25" t="s">
         <v>32</v>
       </c>
       <c r="M69" s="22"/>
@@ -3556,7 +3654,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
-      <c r="T69" s="67"/>
+      <c r="T69" s="65"/>
     </row>
     <row r="70" spans="1:20" ht="72.5">
       <c r="A70" s="4">
@@ -3574,7 +3672,7 @@
       <c r="E70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G70" s="3"/>
@@ -3585,10 +3683,10 @@
         <v>82</v>
       </c>
       <c r="J70" s="22"/>
-      <c r="K70" s="26" t="s">
+      <c r="K70" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="L70" s="25" t="s">
         <v>33</v>
       </c>
       <c r="M70" s="22" t="s">
@@ -3600,13 +3698,13 @@
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
-      <c r="R70" s="26" t="s">
+      <c r="R70" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S70" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T70" s="67">
+      <c r="T70" s="65">
         <v>1</v>
       </c>
     </row>
@@ -3626,15 +3724,15 @@
       <c r="E71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="59" t="s">
+      <c r="F71" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G71" s="8"/>
       <c r="H71" s="22"/>
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
@@ -3642,25 +3740,33 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
-      <c r="T71" s="67"/>
+      <c r="T71" s="65"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F72" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
@@ -3668,33 +3774,33 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
-      <c r="T72" s="67"/>
+      <c r="T72" s="65"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1">
-      <c r="A73" s="43">
-        <v>3</v>
-      </c>
-      <c r="B73" s="44">
+      <c r="A73" s="41">
+        <v>4</v>
+      </c>
+      <c r="B73" s="42">
         <v>2</v>
       </c>
-      <c r="C73" s="42">
-        <v>1</v>
-      </c>
-      <c r="D73" s="42" t="s">
+      <c r="C73" s="40">
+        <v>1</v>
+      </c>
+      <c r="D73" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G73" s="45"/>
+      <c r="G73" s="43"/>
       <c r="H73" s="22"/>
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
@@ -3702,23 +3808,25 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
-      <c r="T73" s="67"/>
+      <c r="T73" s="65"/>
     </row>
     <row r="74" spans="1:20" ht="29.5" thickBot="1">
       <c r="A74" s="18">
         <v>1</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="82">
+        <v>3</v>
+      </c>
       <c r="C74" s="19">
         <v>1</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="54" t="s">
+      <c r="F74" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G74" s="20">
@@ -3727,8 +3835,8 @@
       <c r="H74" s="22"/>
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
@@ -3736,20 +3844,20 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
-      <c r="T74" s="67"/>
+      <c r="T74" s="65"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="23"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
-      <c r="E75" s="26"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
@@ -3757,7 +3865,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
       <c r="S75" s="22"/>
-      <c r="T75" s="67"/>
+      <c r="T75" s="65"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="23"/>
@@ -3769,8 +3877,8 @@
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -3778,7 +3886,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
-      <c r="T76" s="67"/>
+      <c r="T76" s="65"/>
     </row>
     <row r="77" spans="1:20" ht="58">
       <c r="A77" s="23"/>
@@ -3794,10 +3902,10 @@
         <v>83</v>
       </c>
       <c r="J77" s="22"/>
-      <c r="K77" s="26" t="s">
+      <c r="K77" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="25" t="s">
         <v>34</v>
       </c>
       <c r="M77" s="22"/>
@@ -3807,7 +3915,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
       <c r="S77" s="22"/>
-      <c r="T77" s="67"/>
+      <c r="T77" s="65"/>
     </row>
     <row r="78" spans="1:20" ht="58">
       <c r="A78" s="23"/>
@@ -3823,10 +3931,10 @@
         <v>84</v>
       </c>
       <c r="J78" s="22"/>
-      <c r="K78" s="26" t="s">
+      <c r="K78" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="25" t="s">
         <v>35</v>
       </c>
       <c r="M78" s="22"/>
@@ -3836,7 +3944,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
-      <c r="T78" s="67"/>
+      <c r="T78" s="65"/>
     </row>
     <row r="79" spans="1:20" ht="58">
       <c r="A79" s="23"/>
@@ -3852,10 +3960,10 @@
         <v>85</v>
       </c>
       <c r="J79" s="22"/>
-      <c r="K79" s="26" t="s">
+      <c r="K79" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="25" t="s">
         <v>36</v>
       </c>
       <c r="M79" s="22"/>
@@ -3865,7 +3973,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
-      <c r="T79" s="67"/>
+      <c r="T79" s="65"/>
     </row>
     <row r="80" spans="1:20" ht="58">
       <c r="A80" s="23"/>
@@ -3881,10 +3989,10 @@
         <v>77</v>
       </c>
       <c r="J80" s="22"/>
-      <c r="K80" s="26" t="s">
+      <c r="K80" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M80" s="22"/>
@@ -3894,7 +4002,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
-      <c r="T80" s="67"/>
+      <c r="T80" s="65"/>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="23"/>
@@ -3906,8 +4014,8 @@
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
@@ -3915,7 +4023,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
-      <c r="T81" s="67"/>
+      <c r="T81" s="65"/>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="23"/>
@@ -3927,8 +4035,8 @@
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
@@ -3936,7 +4044,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
-      <c r="T82" s="67"/>
+      <c r="T82" s="65"/>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="23"/>
@@ -3948,8 +4056,8 @@
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
@@ -3957,7 +4065,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
-      <c r="T83" s="67"/>
+      <c r="T83" s="65"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1">
       <c r="A84" s="23"/>
@@ -3969,8 +4077,8 @@
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
@@ -3978,7 +4086,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
-      <c r="T84" s="67"/>
+      <c r="T84" s="65"/>
     </row>
     <row r="85" spans="1:20" ht="72.5">
       <c r="A85" s="4">
@@ -3996,7 +4104,7 @@
       <c r="E85" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="52" t="s">
+      <c r="F85" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G85" s="3"/>
@@ -4007,10 +4115,10 @@
         <v>76</v>
       </c>
       <c r="J85" s="22"/>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L85" s="26" t="s">
+      <c r="L85" s="25" t="s">
         <v>37</v>
       </c>
       <c r="M85" s="22" t="s">
@@ -4022,13 +4130,13 @@
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
-      <c r="R85" s="26" t="s">
+      <c r="R85" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S85" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T85" s="67">
+      <c r="T85" s="65">
         <v>1</v>
       </c>
     </row>
@@ -4048,15 +4156,15 @@
       <c r="E86" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F86" s="59" t="s">
+      <c r="F86" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="22"/>
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
@@ -4064,25 +4172,33 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
-      <c r="T86" s="67"/>
+      <c r="T86" s="65"/>
     </row>
     <row r="87" spans="1:20">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="A87" s="5">
+        <v>3</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E87" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F87" s="59" t="s">
+      <c r="F87" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
@@ -4090,33 +4206,33 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
       <c r="S87" s="22"/>
-      <c r="T87" s="67"/>
+      <c r="T87" s="65"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1">
-      <c r="A88" s="43">
-        <v>3</v>
-      </c>
-      <c r="B88" s="44">
+      <c r="A88" s="41">
+        <v>4</v>
+      </c>
+      <c r="B88" s="42">
         <v>2</v>
       </c>
-      <c r="C88" s="42">
-        <v>1</v>
-      </c>
-      <c r="D88" s="42" t="s">
+      <c r="C88" s="40">
+        <v>1</v>
+      </c>
+      <c r="D88" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E88" s="42" t="s">
+      <c r="E88" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F88" s="57" t="s">
+      <c r="F88" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="45"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
@@ -4124,33 +4240,35 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
       <c r="S88" s="22"/>
-      <c r="T88" s="67"/>
+      <c r="T88" s="65"/>
     </row>
     <row r="89" spans="1:20" ht="29">
-      <c r="A89" s="39">
-        <v>1</v>
-      </c>
-      <c r="B89" s="24"/>
+      <c r="A89" s="37">
+        <v>1</v>
+      </c>
+      <c r="B89" s="80">
+        <v>3</v>
+      </c>
       <c r="C89" s="21">
         <v>1</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G89" s="41">
+      <c r="G89" s="39">
         <v>11111</v>
       </c>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
@@ -4158,13 +4276,15 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
       <c r="S89" s="22"/>
-      <c r="T89" s="67"/>
+      <c r="T89" s="65"/>
     </row>
     <row r="90" spans="1:20" ht="29.5" thickBot="1">
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90" s="81">
+        <v>3</v>
+      </c>
       <c r="C90" s="12">
         <v>2</v>
       </c>
@@ -4174,7 +4294,7 @@
       <c r="E90" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F90" s="56" t="s">
+      <c r="F90" s="54" t="s">
         <v>74</v>
       </c>
       <c r="G90" s="14">
@@ -4183,8 +4303,8 @@
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
@@ -4192,7 +4312,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
-      <c r="T90" s="67"/>
+      <c r="T90" s="65"/>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="23"/>
@@ -4204,8 +4324,8 @@
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
       <c r="O91" s="22"/>
@@ -4213,7 +4333,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
       <c r="S91" s="22"/>
-      <c r="T91" s="67"/>
+      <c r="T91" s="65"/>
     </row>
     <row r="92" spans="1:20" ht="44" thickBot="1">
       <c r="A92" s="23"/>
@@ -4232,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="K92" s="22"/>
-      <c r="L92" s="26" t="s">
+      <c r="L92" s="25" t="s">
         <v>39</v>
       </c>
       <c r="M92" s="22"/>
@@ -4242,7 +4362,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
       <c r="S92" s="22"/>
-      <c r="T92" s="67"/>
+      <c r="T92" s="65"/>
     </row>
     <row r="93" spans="1:20" ht="72.5">
       <c r="A93" s="4">
@@ -4260,7 +4380,7 @@
       <c r="E93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G93" s="3"/>
@@ -4274,7 +4394,7 @@
         <v>40</v>
       </c>
       <c r="K93" s="22"/>
-      <c r="L93" s="26" t="s">
+      <c r="L93" s="25" t="s">
         <v>39</v>
       </c>
       <c r="M93" s="22" t="s">
@@ -4286,13 +4406,13 @@
       <c r="O93" s="22"/>
       <c r="P93" s="22"/>
       <c r="Q93" s="22"/>
-      <c r="R93" s="26" t="s">
+      <c r="R93" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S93" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T93" s="67">
+      <c r="T93" s="65">
         <v>1</v>
       </c>
     </row>
@@ -4312,7 +4432,7 @@
       <c r="E94" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="59" t="s">
+      <c r="F94" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G94" s="8"/>
@@ -4320,7 +4440,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
-      <c r="L94" s="26"/>
+      <c r="L94" s="25"/>
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
@@ -4328,17 +4448,25 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
       <c r="S94" s="22"/>
-      <c r="T94" s="67"/>
+      <c r="T94" s="65"/>
     </row>
     <row r="95" spans="1:20">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="A95" s="5">
+        <v>3</v>
+      </c>
+      <c r="B95" s="6">
+        <v>2</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F95" s="59" t="s">
+      <c r="F95" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G95" s="8"/>
@@ -4346,7 +4474,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="26"/>
+      <c r="L95" s="25"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
@@ -4354,33 +4482,33 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
       <c r="S95" s="22"/>
-      <c r="T95" s="67"/>
+      <c r="T95" s="65"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1">
-      <c r="A96" s="43">
-        <v>3</v>
-      </c>
-      <c r="B96" s="44">
+      <c r="A96" s="41">
+        <v>4</v>
+      </c>
+      <c r="B96" s="42">
         <v>2</v>
       </c>
-      <c r="C96" s="42">
-        <v>1</v>
-      </c>
-      <c r="D96" s="42" t="s">
+      <c r="C96" s="40">
+        <v>1</v>
+      </c>
+      <c r="D96" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E96" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F96" s="57" t="s">
+      <c r="F96" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G96" s="45"/>
+      <c r="G96" s="43"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="26"/>
+      <c r="L96" s="25"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
@@ -4388,33 +4516,35 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
       <c r="S96" s="22"/>
-      <c r="T96" s="67"/>
+      <c r="T96" s="65"/>
     </row>
     <row r="97" spans="1:21" ht="29">
-      <c r="A97" s="39">
-        <v>1</v>
-      </c>
-      <c r="B97" s="24"/>
+      <c r="A97" s="37">
+        <v>1</v>
+      </c>
+      <c r="B97" s="80">
+        <v>3</v>
+      </c>
       <c r="C97" s="21">
         <v>1</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F97" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="41">
+      <c r="G97" s="39">
         <v>11111</v>
       </c>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
-      <c r="L97" s="26"/>
+      <c r="L97" s="25"/>
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
@@ -4422,13 +4552,15 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
       <c r="S97" s="22"/>
-      <c r="T97" s="67"/>
+      <c r="T97" s="65"/>
     </row>
     <row r="98" spans="1:21" ht="29.5" thickBot="1">
       <c r="A98" s="10">
         <v>2</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="81">
+        <v>3</v>
+      </c>
       <c r="C98" s="12">
         <v>2</v>
       </c>
@@ -4438,7 +4570,7 @@
       <c r="E98" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F98" s="56" t="s">
+      <c r="F98" s="54" t="s">
         <v>74</v>
       </c>
       <c r="G98" s="14">
@@ -4448,7 +4580,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
-      <c r="L98" s="26"/>
+      <c r="L98" s="25"/>
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
@@ -4456,7 +4588,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
-      <c r="T98" s="67"/>
+      <c r="T98" s="65"/>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="23"/>
@@ -4469,7 +4601,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
-      <c r="L99" s="26"/>
+      <c r="L99" s="25"/>
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
@@ -4477,7 +4609,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
       <c r="S99" s="22"/>
-      <c r="T99" s="67"/>
+      <c r="T99" s="65"/>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="23"/>
@@ -4490,7 +4622,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
-      <c r="L100" s="26"/>
+      <c r="L100" s="25"/>
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
@@ -4498,7 +4630,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
       <c r="S100" s="22"/>
-      <c r="T100" s="67"/>
+      <c r="T100" s="65"/>
     </row>
     <row r="101" spans="1:21" ht="43.5">
       <c r="A101" s="23"/>
@@ -4517,7 +4649,7 @@
         <v>41</v>
       </c>
       <c r="K101" s="22"/>
-      <c r="L101" s="26" t="s">
+      <c r="L101" s="25" t="s">
         <v>42</v>
       </c>
       <c r="M101" s="22"/>
@@ -4527,7 +4659,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
       <c r="S101" s="22"/>
-      <c r="T101" s="67"/>
+      <c r="T101" s="65"/>
     </row>
     <row r="102" spans="1:21" ht="15" thickBot="1">
       <c r="A102" s="23"/>
@@ -4540,7 +4672,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
-      <c r="L102" s="26"/>
+      <c r="L102" s="25"/>
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
@@ -4548,7 +4680,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
       <c r="S102" s="22"/>
-      <c r="T102" s="67"/>
+      <c r="T102" s="65"/>
     </row>
     <row r="103" spans="1:21" ht="72.5">
       <c r="A103" s="4">
@@ -4566,7 +4698,7 @@
       <c r="E103" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="52" t="s">
+      <c r="F103" s="50" t="s">
         <v>95</v>
       </c>
       <c r="G103" s="3"/>
@@ -4580,7 +4712,7 @@
         <v>43</v>
       </c>
       <c r="K103" s="22"/>
-      <c r="L103" s="26" t="s">
+      <c r="L103" s="25" t="s">
         <v>42</v>
       </c>
       <c r="M103" s="22" t="s">
@@ -4592,13 +4724,13 @@
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
-      <c r="R103" s="26" t="s">
+      <c r="R103" s="25" t="s">
         <v>102</v>
       </c>
       <c r="S103" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="T103" s="67">
+      <c r="T103" s="65">
         <v>1</v>
       </c>
     </row>
@@ -4618,7 +4750,7 @@
       <c r="E104" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="59" t="s">
+      <c r="F104" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G104" s="8"/>
@@ -4626,7 +4758,7 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
-      <c r="L104" s="26"/>
+      <c r="L104" s="25"/>
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
@@ -4634,17 +4766,25 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
       <c r="S104" s="22"/>
-      <c r="T104" s="67"/>
+      <c r="T104" s="65"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
+      <c r="A105" s="5">
+        <v>3</v>
+      </c>
+      <c r="B105" s="6">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="E105" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F105" s="59" t="s">
+      <c r="F105" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G105" s="8"/>
@@ -4652,7 +4792,7 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
-      <c r="L105" s="26"/>
+      <c r="L105" s="25"/>
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
@@ -4660,33 +4800,33 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
       <c r="S105" s="22"/>
-      <c r="T105" s="67"/>
+      <c r="T105" s="65"/>
     </row>
     <row r="106" spans="1:21" ht="15" thickBot="1">
-      <c r="A106" s="43">
-        <v>3</v>
-      </c>
-      <c r="B106" s="44">
+      <c r="A106" s="41">
+        <v>4</v>
+      </c>
+      <c r="B106" s="42">
         <v>2</v>
       </c>
-      <c r="C106" s="42">
-        <v>1</v>
-      </c>
-      <c r="D106" s="42" t="s">
+      <c r="C106" s="40">
+        <v>1</v>
+      </c>
+      <c r="D106" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E106" s="42" t="s">
+      <c r="E106" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F106" s="57" t="s">
+      <c r="F106" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G106" s="45"/>
+      <c r="G106" s="43"/>
       <c r="H106" s="22"/>
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
-      <c r="L106" s="26"/>
+      <c r="L106" s="25"/>
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
@@ -4694,33 +4834,35 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
-      <c r="T106" s="67"/>
+      <c r="T106" s="65"/>
     </row>
     <row r="107" spans="1:21" ht="29">
-      <c r="A107" s="39">
-        <v>1</v>
-      </c>
-      <c r="B107" s="24"/>
+      <c r="A107" s="37">
+        <v>1</v>
+      </c>
+      <c r="B107" s="80">
+        <v>3</v>
+      </c>
       <c r="C107" s="21">
         <v>1</v>
       </c>
       <c r="D107" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F107" s="55" t="s">
+      <c r="F107" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="41">
+      <c r="G107" s="39">
         <v>11111</v>
       </c>
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
-      <c r="L107" s="26"/>
+      <c r="L107" s="25"/>
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
@@ -4728,13 +4870,15 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
       <c r="S107" s="22"/>
-      <c r="T107" s="67"/>
+      <c r="T107" s="65"/>
     </row>
     <row r="108" spans="1:21" ht="29.5" thickBot="1">
       <c r="A108" s="10">
         <v>2</v>
       </c>
-      <c r="B108" s="11"/>
+      <c r="B108" s="81">
+        <v>3</v>
+      </c>
       <c r="C108" s="12">
         <v>2</v>
       </c>
@@ -4744,7 +4888,7 @@
       <c r="E108" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F108" s="56" t="s">
+      <c r="F108" s="54" t="s">
         <v>74</v>
       </c>
       <c r="G108" s="14">
@@ -4754,7 +4898,7 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
-      <c r="L108" s="26"/>
+      <c r="L108" s="25"/>
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
       <c r="O108" s="22"/>
@@ -4762,50 +4906,50 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
-      <c r="T108" s="67"/>
+      <c r="T108" s="65"/>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="23"/>
-      <c r="B109" s="25"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
-      <c r="E109" s="26"/>
+      <c r="E109" s="25"/>
       <c r="F109" s="22"/>
       <c r="H109" s="22"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
-      <c r="L109" s="26"/>
+      <c r="L109" s="25"/>
       <c r="M109" s="22"/>
-      <c r="N109" s="25"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
       <c r="R109" s="22"/>
       <c r="S109" s="22"/>
-      <c r="T109" s="68"/>
+      <c r="T109" s="66"/>
       <c r="U109" s="22"/>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="23"/>
-      <c r="B110" s="25"/>
+      <c r="B110" s="24"/>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="26"/>
+      <c r="E110" s="25"/>
       <c r="F110" s="22"/>
       <c r="H110" s="22"/>
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
-      <c r="L110" s="26"/>
+      <c r="L110" s="25"/>
       <c r="M110" s="22"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
+      <c r="N110" s="24"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="24"/>
+      <c r="Q110" s="24"/>
       <c r="R110" s="22"/>
       <c r="S110" s="22"/>
-      <c r="T110" s="68"/>
+      <c r="T110" s="66"/>
       <c r="U110" s="22"/>
     </row>
     <row r="111" spans="1:21" ht="87.5" thickBot="1">
@@ -4824,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="K111" s="17"/>
-      <c r="L111" s="48" t="s">
+      <c r="L111" s="46" t="s">
         <v>45</v>
       </c>
       <c r="M111" s="16"/>
@@ -4834,7 +4978,7 @@
       <c r="Q111" s="17"/>
       <c r="R111" s="17"/>
       <c r="S111" s="17"/>
-      <c r="T111" s="69"/>
+      <c r="T111" s="67"/>
     </row>
     <row r="112" spans="1:21">
       <c r="M112" s="22"/>

--- a/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
+++ b/datenRF4/AFL/i=23,28, Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L1_S4_i23,28_Fremd.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28, Fremdlüfter, Abtriebswelle=14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601AE12A-6989-4623-85D4-74469ECF9E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 5" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -437,8 +443,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1032,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,21 +1077,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1343,109 +1349,106 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="22" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
-    <col min="11" max="11" width="16.90625" customWidth="1"/>
-    <col min="12" max="12" width="48.08984375" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" customWidth="1"/>
-    <col min="18" max="18" width="11.6328125" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="68" customWidth="1"/>
-    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.90625" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" customWidth="1"/>
-    <col min="25" max="25" width="11.08984375" customWidth="1"/>
-    <col min="26" max="26" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="48.109375" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="68" customWidth="1"/>
+    <col min="21" max="21" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+    <col min="23" max="23" width="13.77734375" customWidth="1"/>
+    <col min="24" max="24" width="12.21875" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="61"/>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="69" t="s">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="71" t="s">
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="76" t="s">
+      <c r="D2" s="80"/>
+      <c r="E2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="62"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>60</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29" customHeight="1">
+    <row r="4" spans="1:20" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1541,7 +1544,7 @@
       </c>
       <c r="T4" s="64"/>
     </row>
-    <row r="5" spans="1:20" ht="15" thickBot="1">
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -1570,7 +1573,7 @@
       <c r="S5" s="22"/>
       <c r="T5" s="65"/>
     </row>
-    <row r="6" spans="1:20" ht="72.5">
+    <row r="6" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>2</v>
       </c>
@@ -1656,11 +1659,11 @@
       <c r="S7" s="22"/>
       <c r="T7" s="65"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="71">
         <v>3</v>
       </c>
       <c r="C8" s="19">
@@ -1692,7 +1695,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="65"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1721,7 +1724,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="65"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1742,7 +1745,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="65"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1763,7 +1766,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="65"/>
     </row>
-    <row r="12" spans="1:20" ht="72.5">
+    <row r="12" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1">
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -1849,11 +1852,11 @@
       <c r="S13" s="22"/>
       <c r="T13" s="65"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>1</v>
       </c>
-      <c r="B14" s="80">
+      <c r="B14" s="69">
         <v>3</v>
       </c>
       <c r="C14" s="21">
@@ -1885,7 +1888,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="65"/>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2</v>
       </c>
@@ -1921,7 +1924,7 @@
       <c r="S15" s="22"/>
       <c r="T15" s="65"/>
     </row>
-    <row r="16" spans="1:20" ht="72.5">
+    <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1950,7 +1953,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="65"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1971,7 +1974,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="65"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1992,7 +1995,7 @@
       <c r="S18" s="22"/>
       <c r="T18" s="65"/>
     </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1">
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2013,7 +2016,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="65"/>
     </row>
-    <row r="20" spans="1:20" ht="72.5">
+    <row r="20" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="41">
         <v>2</v>
       </c>
@@ -2099,11 +2102,11 @@
       <c r="S21" s="22"/>
       <c r="T21" s="65"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="80">
+      <c r="B22" s="69">
         <v>3</v>
       </c>
       <c r="C22" s="21">
@@ -2135,11 +2138,11 @@
       <c r="S22" s="22"/>
       <c r="T22" s="65"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="80">
+      <c r="B23" s="69">
         <v>3</v>
       </c>
       <c r="C23" s="7">
@@ -2171,11 +2174,11 @@
       <c r="S23" s="22"/>
       <c r="T23" s="65"/>
     </row>
-    <row r="24" spans="1:20" ht="29.5" thickBot="1">
+    <row r="24" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="80">
+      <c r="B24" s="69">
         <v>3</v>
       </c>
       <c r="C24" s="12">
@@ -2207,7 +2210,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="65"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2228,7 +2231,7 @@
       <c r="S25" s="22"/>
       <c r="T25" s="65"/>
     </row>
-    <row r="26" spans="1:20" ht="29">
+    <row r="26" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2257,7 +2260,7 @@
       <c r="S26" s="22"/>
       <c r="T26" s="65"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2278,7 +2281,7 @@
       <c r="S27" s="22"/>
       <c r="T27" s="65"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2299,7 +2302,7 @@
       <c r="S28" s="22"/>
       <c r="T28" s="65"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2320,7 +2323,7 @@
       <c r="S29" s="22"/>
       <c r="T29" s="65"/>
     </row>
-    <row r="30" spans="1:20" ht="15" thickBot="1">
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2341,7 +2344,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="65"/>
     </row>
-    <row r="31" spans="1:20" ht="72.5">
+    <row r="31" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1">
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="41">
         <v>2</v>
       </c>
@@ -2427,11 +2430,11 @@
       <c r="S32" s="22"/>
       <c r="T32" s="65"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="37">
         <v>1</v>
       </c>
-      <c r="B33" s="80">
+      <c r="B33" s="69">
         <v>3</v>
       </c>
       <c r="C33" s="21">
@@ -2463,11 +2466,11 @@
       <c r="S33" s="22"/>
       <c r="T33" s="65"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="80">
+      <c r="B34" s="69">
         <v>3</v>
       </c>
       <c r="C34" s="7">
@@ -2499,11 +2502,11 @@
       <c r="S34" s="22"/>
       <c r="T34" s="65"/>
     </row>
-    <row r="35" spans="1:20" ht="29.5" thickBot="1">
+    <row r="35" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>3</v>
       </c>
-      <c r="B35" s="80">
+      <c r="B35" s="69">
         <v>3</v>
       </c>
       <c r="C35" s="12">
@@ -2535,7 +2538,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="65"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2556,7 +2559,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="65"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2577,7 +2580,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="65"/>
     </row>
-    <row r="38" spans="1:20" ht="29">
+    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2606,7 +2609,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="65"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2627,7 +2630,7 @@
       <c r="S39" s="22"/>
       <c r="T39" s="65"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -2648,7 +2651,7 @@
       <c r="S40" s="22"/>
       <c r="T40" s="65"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2669,7 +2672,7 @@
       <c r="S41" s="22"/>
       <c r="T41" s="65"/>
     </row>
-    <row r="42" spans="1:20" ht="15" thickBot="1">
+    <row r="42" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2690,7 +2693,7 @@
       <c r="S42" s="22"/>
       <c r="T42" s="65"/>
     </row>
-    <row r="43" spans="1:20" ht="58">
+    <row r="43" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>1</v>
       </c>
@@ -2744,7 +2747,7 @@
       </c>
       <c r="T43" s="65"/>
     </row>
-    <row r="44" spans="1:20" ht="29.5" thickBot="1">
+    <row r="44" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="41">
         <v>2</v>
       </c>
@@ -2784,11 +2787,11 @@
       </c>
       <c r="T44" s="65"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="37">
         <v>1</v>
       </c>
-      <c r="B45" s="80">
+      <c r="B45" s="69">
         <v>3</v>
       </c>
       <c r="C45" s="21">
@@ -2820,11 +2823,11 @@
       <c r="S45" s="22"/>
       <c r="T45" s="65"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B46" s="80">
+      <c r="B46" s="69">
         <v>3</v>
       </c>
       <c r="C46" s="7">
@@ -2856,11 +2859,11 @@
       <c r="S46" s="22"/>
       <c r="T46" s="65"/>
     </row>
-    <row r="47" spans="1:20" ht="29.5" thickBot="1">
+    <row r="47" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>3</v>
       </c>
-      <c r="B47" s="80">
+      <c r="B47" s="69">
         <v>3</v>
       </c>
       <c r="C47" s="12">
@@ -2892,7 +2895,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="65"/>
     </row>
-    <row r="48" spans="1:20" ht="15" thickBot="1">
+    <row r="48" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -2921,7 +2924,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="65"/>
     </row>
-    <row r="49" spans="1:20" ht="72.5">
+    <row r="49" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>2</v>
       </c>
@@ -3007,20 +3010,20 @@
       <c r="S50" s="22"/>
       <c r="T50" s="65"/>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="41">
         <v>3</v>
       </c>
       <c r="B51" s="42">
         <v>2</v>
       </c>
-      <c r="C51" s="83">
-        <v>1</v>
-      </c>
-      <c r="D51" s="83" t="s">
+      <c r="C51" s="72">
+        <v>1</v>
+      </c>
+      <c r="D51" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="73" t="s">
         <v>92</v>
       </c>
       <c r="F51" s="55" t="s">
@@ -3041,20 +3044,20 @@
       <c r="S51" s="22"/>
       <c r="T51" s="65"/>
     </row>
-    <row r="52" spans="1:20" ht="15" thickBot="1">
+    <row r="52" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>1</v>
       </c>
       <c r="B52" s="19">
         <v>3</v>
       </c>
-      <c r="C52" s="85">
-        <v>1</v>
-      </c>
-      <c r="D52" s="85" t="s">
+      <c r="C52" s="74">
+        <v>1</v>
+      </c>
+      <c r="D52" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="74" t="s">
         <v>90</v>
       </c>
       <c r="F52" s="58" t="s">
@@ -3077,7 +3080,7 @@
       <c r="S52" s="22"/>
       <c r="T52" s="65"/>
     </row>
-    <row r="53" spans="1:20" ht="15" thickBot="1">
+    <row r="53" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -3098,7 +3101,7 @@
       <c r="S53" s="22"/>
       <c r="T53" s="65"/>
     </row>
-    <row r="54" spans="1:20" ht="72.5">
+    <row r="54" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -3150,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>2</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="S55" s="22"/>
       <c r="T55" s="65"/>
     </row>
-    <row r="56" spans="1:20" ht="15" thickBot="1">
+    <row r="56" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="41">
         <v>3</v>
       </c>
@@ -3218,7 +3221,7 @@
       <c r="S56" s="22"/>
       <c r="T56" s="65"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="37">
         <v>1</v>
       </c>
@@ -3254,7 +3257,7 @@
       <c r="S57" s="22"/>
       <c r="T57" s="65"/>
     </row>
-    <row r="58" spans="1:20" ht="15" thickBot="1">
+    <row r="58" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10">
         <v>2</v>
       </c>
@@ -3290,7 +3293,7 @@
       <c r="S58" s="22"/>
       <c r="T58" s="65"/>
     </row>
-    <row r="59" spans="1:20" ht="15" thickBot="1">
+    <row r="59" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="23"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -3311,7 +3314,7 @@
       <c r="S59" s="22"/>
       <c r="T59" s="65"/>
     </row>
-    <row r="60" spans="1:20" ht="58">
+    <row r="60" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -3365,7 +3368,7 @@
       </c>
       <c r="T60" s="65"/>
     </row>
-    <row r="61" spans="1:20" ht="29">
+    <row r="61" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>2</v>
       </c>
@@ -3413,7 +3416,7 @@
       </c>
       <c r="T61" s="65"/>
     </row>
-    <row r="62" spans="1:20" ht="15" thickBot="1">
+    <row r="62" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="41">
         <v>3</v>
       </c>
@@ -3447,7 +3450,7 @@
       <c r="S62" s="22"/>
       <c r="T62" s="65"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="37">
         <v>1</v>
       </c>
@@ -3483,7 +3486,7 @@
       <c r="S63" s="22"/>
       <c r="T63" s="65"/>
     </row>
-    <row r="64" spans="1:20" ht="15" thickBot="1">
+    <row r="64" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10">
         <v>2</v>
       </c>
@@ -3519,7 +3522,7 @@
       <c r="S64" s="22"/>
       <c r="T64" s="65"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -3540,7 +3543,7 @@
       <c r="S65" s="22"/>
       <c r="T65" s="65"/>
     </row>
-    <row r="66" spans="1:20" ht="43.5">
+    <row r="66" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -3569,7 +3572,7 @@
       <c r="S66" s="22"/>
       <c r="T66" s="65"/>
     </row>
-    <row r="67" spans="1:20" ht="43.5">
+    <row r="67" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -3598,7 +3601,7 @@
       <c r="S67" s="22"/>
       <c r="T67" s="65"/>
     </row>
-    <row r="68" spans="1:20" ht="43.5">
+    <row r="68" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -3627,7 +3630,7 @@
       <c r="S68" s="22"/>
       <c r="T68" s="65"/>
     </row>
-    <row r="69" spans="1:20" ht="44" thickBot="1">
+    <row r="69" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="23"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -3656,7 +3659,7 @@
       <c r="S69" s="22"/>
       <c r="T69" s="65"/>
     </row>
-    <row r="70" spans="1:20" ht="72.5">
+    <row r="70" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>2</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="S71" s="22"/>
       <c r="T71" s="65"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>3</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="S72" s="22"/>
       <c r="T72" s="65"/>
     </row>
-    <row r="73" spans="1:20" ht="15" thickBot="1">
+    <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="41">
         <v>4</v>
       </c>
@@ -3810,11 +3813,11 @@
       <c r="S73" s="22"/>
       <c r="T73" s="65"/>
     </row>
-    <row r="74" spans="1:20" ht="29.5" thickBot="1">
+    <row r="74" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18">
         <v>1</v>
       </c>
-      <c r="B74" s="82">
+      <c r="B74" s="71">
         <v>3</v>
       </c>
       <c r="C74" s="19">
@@ -3846,7 +3849,7 @@
       <c r="S74" s="22"/>
       <c r="T74" s="65"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="22"/>
@@ -3867,7 +3870,7 @@
       <c r="S75" s="22"/>
       <c r="T75" s="65"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -3888,7 +3891,7 @@
       <c r="S76" s="22"/>
       <c r="T76" s="65"/>
     </row>
-    <row r="77" spans="1:20" ht="58">
+    <row r="77" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -3917,7 +3920,7 @@
       <c r="S77" s="22"/>
       <c r="T77" s="65"/>
     </row>
-    <row r="78" spans="1:20" ht="58">
+    <row r="78" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -3946,7 +3949,7 @@
       <c r="S78" s="22"/>
       <c r="T78" s="65"/>
     </row>
-    <row r="79" spans="1:20" ht="58">
+    <row r="79" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -3975,7 +3978,7 @@
       <c r="S79" s="22"/>
       <c r="T79" s="65"/>
     </row>
-    <row r="80" spans="1:20" ht="58">
+    <row r="80" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -4004,7 +4007,7 @@
       <c r="S80" s="22"/>
       <c r="T80" s="65"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -4025,7 +4028,7 @@
       <c r="S81" s="22"/>
       <c r="T81" s="65"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -4046,7 +4049,7 @@
       <c r="S82" s="22"/>
       <c r="T82" s="65"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -4067,7 +4070,7 @@
       <c r="S83" s="22"/>
       <c r="T83" s="65"/>
     </row>
-    <row r="84" spans="1:20" ht="15" thickBot="1">
+    <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="23"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -4088,7 +4091,7 @@
       <c r="S84" s="22"/>
       <c r="T84" s="65"/>
     </row>
-    <row r="85" spans="1:20" ht="72.5">
+    <row r="85" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>2</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="S86" s="22"/>
       <c r="T86" s="65"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>3</v>
       </c>
@@ -4208,7 +4211,7 @@
       <c r="S87" s="22"/>
       <c r="T87" s="65"/>
     </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1">
+    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="41">
         <v>4</v>
       </c>
@@ -4242,11 +4245,11 @@
       <c r="S88" s="22"/>
       <c r="T88" s="65"/>
     </row>
-    <row r="89" spans="1:20" ht="29">
+    <row r="89" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="37">
         <v>1</v>
       </c>
-      <c r="B89" s="80">
+      <c r="B89" s="69">
         <v>3</v>
       </c>
       <c r="C89" s="21">
@@ -4278,11 +4281,11 @@
       <c r="S89" s="22"/>
       <c r="T89" s="65"/>
     </row>
-    <row r="90" spans="1:20" ht="29.5" thickBot="1">
+    <row r="90" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10">
         <v>2</v>
       </c>
-      <c r="B90" s="81">
+      <c r="B90" s="70">
         <v>3</v>
       </c>
       <c r="C90" s="12">
@@ -4314,7 +4317,7 @@
       <c r="S90" s="22"/>
       <c r="T90" s="65"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -4335,7 +4338,7 @@
       <c r="S91" s="22"/>
       <c r="T91" s="65"/>
     </row>
-    <row r="92" spans="1:20" ht="44" thickBot="1">
+    <row r="92" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="23"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -4364,7 +4367,7 @@
       <c r="S92" s="22"/>
       <c r="T92" s="65"/>
     </row>
-    <row r="93" spans="1:20" ht="72.5">
+    <row r="93" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>2</v>
       </c>
@@ -4450,7 +4453,7 @@
       <c r="S94" s="22"/>
       <c r="T94" s="65"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>3</v>
       </c>
@@ -4484,7 +4487,7 @@
       <c r="S95" s="22"/>
       <c r="T95" s="65"/>
     </row>
-    <row r="96" spans="1:20" ht="15" thickBot="1">
+    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41">
         <v>4</v>
       </c>
@@ -4518,11 +4521,11 @@
       <c r="S96" s="22"/>
       <c r="T96" s="65"/>
     </row>
-    <row r="97" spans="1:21" ht="29">
+    <row r="97" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="37">
         <v>1</v>
       </c>
-      <c r="B97" s="80">
+      <c r="B97" s="69">
         <v>3</v>
       </c>
       <c r="C97" s="21">
@@ -4554,11 +4557,11 @@
       <c r="S97" s="22"/>
       <c r="T97" s="65"/>
     </row>
-    <row r="98" spans="1:21" ht="29.5" thickBot="1">
+    <row r="98" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10">
         <v>2</v>
       </c>
-      <c r="B98" s="81">
+      <c r="B98" s="70">
         <v>3</v>
       </c>
       <c r="C98" s="12">
@@ -4590,7 +4593,7 @@
       <c r="S98" s="22"/>
       <c r="T98" s="65"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -4611,7 +4614,7 @@
       <c r="S99" s="22"/>
       <c r="T99" s="65"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -4632,7 +4635,7 @@
       <c r="S100" s="22"/>
       <c r="T100" s="65"/>
     </row>
-    <row r="101" spans="1:21" ht="43.5">
+    <row r="101" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -4661,7 +4664,7 @@
       <c r="S101" s="22"/>
       <c r="T101" s="65"/>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1">
+    <row r="102" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="23"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -4682,7 +4685,7 @@
       <c r="S102" s="22"/>
       <c r="T102" s="65"/>
     </row>
-    <row r="103" spans="1:21" ht="72.5">
+    <row r="103" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>2</v>
       </c>
@@ -4768,7 +4771,7 @@
       <c r="S104" s="22"/>
       <c r="T104" s="65"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>3</v>
       </c>
@@ -4802,7 +4805,7 @@
       <c r="S105" s="22"/>
       <c r="T105" s="65"/>
     </row>
-    <row r="106" spans="1:21" ht="15" thickBot="1">
+    <row r="106" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="41">
         <v>4</v>
       </c>
@@ -4836,11 +4839,11 @@
       <c r="S106" s="22"/>
       <c r="T106" s="65"/>
     </row>
-    <row r="107" spans="1:21" ht="29">
+    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="37">
         <v>1</v>
       </c>
-      <c r="B107" s="80">
+      <c r="B107" s="69">
         <v>3</v>
       </c>
       <c r="C107" s="21">
@@ -4872,11 +4875,11 @@
       <c r="S107" s="22"/>
       <c r="T107" s="65"/>
     </row>
-    <row r="108" spans="1:21" ht="29.5" thickBot="1">
+    <row r="108" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10">
         <v>2</v>
       </c>
-      <c r="B108" s="81">
+      <c r="B108" s="70">
         <v>3</v>
       </c>
       <c r="C108" s="12">
@@ -4908,7 +4911,7 @@
       <c r="S108" s="22"/>
       <c r="T108" s="65"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="22"/>
@@ -4930,7 +4933,7 @@
       <c r="T109" s="66"/>
       <c r="U109" s="22"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="22"/>
@@ -4952,7 +4955,7 @@
       <c r="T110" s="66"/>
       <c r="U110" s="22"/>
     </row>
-    <row r="111" spans="1:21" ht="87.5" thickBot="1">
+    <row r="111" spans="1:21" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -4980,1477 +4983,1477 @@
       <c r="S111" s="17"/>
       <c r="T111" s="67"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M112" s="22"/>
     </row>
-    <row r="113" spans="13:13">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M113" s="22"/>
     </row>
-    <row r="114" spans="13:13">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M114" s="22"/>
     </row>
-    <row r="115" spans="13:13">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M115" s="22"/>
     </row>
-    <row r="116" spans="13:13">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M116" s="22"/>
     </row>
-    <row r="117" spans="13:13">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M117" s="22"/>
     </row>
-    <row r="118" spans="13:13">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M118" s="22"/>
     </row>
-    <row r="119" spans="13:13">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M119" s="22"/>
     </row>
-    <row r="120" spans="13:13">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M120" s="22"/>
     </row>
-    <row r="121" spans="13:13">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M121" s="22"/>
     </row>
-    <row r="122" spans="13:13">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M122" s="22"/>
     </row>
-    <row r="123" spans="13:13">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M123" s="22"/>
     </row>
-    <row r="124" spans="13:13">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M124" s="22"/>
     </row>
-    <row r="125" spans="13:13">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M125" s="22"/>
     </row>
-    <row r="126" spans="13:13">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M126" s="22"/>
     </row>
-    <row r="127" spans="13:13">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M127" s="22"/>
     </row>
-    <row r="128" spans="13:13">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M128" s="22"/>
     </row>
-    <row r="129" spans="13:13">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M129" s="22"/>
     </row>
-    <row r="130" spans="13:13">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M130" s="22"/>
     </row>
-    <row r="131" spans="13:13">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M131" s="22"/>
     </row>
-    <row r="132" spans="13:13">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M132" s="22"/>
     </row>
-    <row r="133" spans="13:13">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M133" s="22"/>
     </row>
-    <row r="134" spans="13:13">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M134" s="22"/>
     </row>
-    <row r="135" spans="13:13">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M135" s="22"/>
     </row>
-    <row r="136" spans="13:13">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M136" s="22"/>
     </row>
-    <row r="137" spans="13:13">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M137" s="22"/>
     </row>
-    <row r="138" spans="13:13">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M138" s="22"/>
     </row>
-    <row r="139" spans="13:13">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M139" s="22"/>
     </row>
-    <row r="140" spans="13:13">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M140" s="22"/>
     </row>
-    <row r="141" spans="13:13">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M141" s="22"/>
     </row>
-    <row r="142" spans="13:13">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M142" s="22"/>
     </row>
-    <row r="143" spans="13:13">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M143" s="22"/>
     </row>
-    <row r="144" spans="13:13">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M144" s="22"/>
     </row>
-    <row r="145" spans="13:13">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M145" s="22"/>
     </row>
-    <row r="146" spans="13:13">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M146" s="22"/>
     </row>
-    <row r="147" spans="13:13">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M147" s="22"/>
     </row>
-    <row r="148" spans="13:13">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M148" s="22"/>
     </row>
-    <row r="149" spans="13:13">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M149" s="22"/>
     </row>
-    <row r="150" spans="13:13">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M150" s="22"/>
     </row>
-    <row r="151" spans="13:13">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M151" s="22"/>
     </row>
-    <row r="152" spans="13:13">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M152" s="22"/>
     </row>
-    <row r="153" spans="13:13">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M153" s="22"/>
     </row>
-    <row r="154" spans="13:13">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M154" s="22"/>
     </row>
-    <row r="155" spans="13:13">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M155" s="22"/>
     </row>
-    <row r="156" spans="13:13">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M156" s="22"/>
     </row>
-    <row r="157" spans="13:13">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M157" s="22"/>
     </row>
-    <row r="158" spans="13:13">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M158" s="22"/>
     </row>
-    <row r="159" spans="13:13">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M159" s="22"/>
     </row>
-    <row r="160" spans="13:13">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M160" s="22"/>
     </row>
-    <row r="161" spans="13:13">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M161" s="22"/>
     </row>
-    <row r="162" spans="13:13">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M162" s="22"/>
     </row>
-    <row r="163" spans="13:13">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M163" s="22"/>
     </row>
-    <row r="164" spans="13:13">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M164" s="22"/>
     </row>
-    <row r="165" spans="13:13">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M165" s="22"/>
     </row>
-    <row r="166" spans="13:13">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M166" s="22"/>
     </row>
-    <row r="167" spans="13:13">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M167" s="22"/>
     </row>
-    <row r="168" spans="13:13">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M168" s="22"/>
     </row>
-    <row r="169" spans="13:13">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M169" s="22"/>
     </row>
-    <row r="170" spans="13:13">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M170" s="22"/>
     </row>
-    <row r="171" spans="13:13">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M171" s="22"/>
     </row>
-    <row r="172" spans="13:13">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M172" s="22"/>
     </row>
-    <row r="173" spans="13:13">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M173" s="22"/>
     </row>
-    <row r="174" spans="13:13">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M174" s="22"/>
     </row>
-    <row r="175" spans="13:13">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M175" s="22"/>
     </row>
-    <row r="176" spans="13:13">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M176" s="22"/>
     </row>
-    <row r="177" spans="13:13">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M177" s="22"/>
     </row>
-    <row r="178" spans="13:13">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M178" s="22"/>
     </row>
-    <row r="179" spans="13:13">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M179" s="22"/>
     </row>
-    <row r="180" spans="13:13">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M180" s="22"/>
     </row>
-    <row r="181" spans="13:13">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M181" s="22"/>
     </row>
-    <row r="182" spans="13:13">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M182" s="22"/>
     </row>
-    <row r="183" spans="13:13">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M183" s="22"/>
     </row>
-    <row r="184" spans="13:13">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M184" s="22"/>
     </row>
-    <row r="185" spans="13:13">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M185" s="22"/>
     </row>
-    <row r="186" spans="13:13">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M186" s="22"/>
     </row>
-    <row r="187" spans="13:13">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M187" s="22"/>
     </row>
-    <row r="188" spans="13:13">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M188" s="22"/>
     </row>
-    <row r="189" spans="13:13">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M189" s="22"/>
     </row>
-    <row r="190" spans="13:13">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M190" s="22"/>
     </row>
-    <row r="191" spans="13:13">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M191" s="22"/>
     </row>
-    <row r="192" spans="13:13">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M192" s="22"/>
     </row>
-    <row r="193" spans="13:13">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M193" s="22"/>
     </row>
-    <row r="194" spans="13:13">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M194" s="22"/>
     </row>
-    <row r="195" spans="13:13">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M195" s="22"/>
     </row>
-    <row r="196" spans="13:13">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M196" s="22"/>
     </row>
-    <row r="197" spans="13:13">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M197" s="22"/>
     </row>
-    <row r="198" spans="13:13">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M198" s="22"/>
     </row>
-    <row r="199" spans="13:13">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M199" s="22"/>
     </row>
-    <row r="200" spans="13:13">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M200" s="22"/>
     </row>
-    <row r="201" spans="13:13">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M201" s="22"/>
     </row>
-    <row r="202" spans="13:13">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M202" s="22"/>
     </row>
-    <row r="203" spans="13:13">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M203" s="22"/>
     </row>
-    <row r="204" spans="13:13">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M204" s="22"/>
     </row>
-    <row r="205" spans="13:13">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M205" s="22"/>
     </row>
-    <row r="206" spans="13:13">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M206" s="22"/>
     </row>
-    <row r="207" spans="13:13">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M207" s="22"/>
     </row>
-    <row r="208" spans="13:13">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M208" s="22"/>
     </row>
-    <row r="209" spans="13:13">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M209" s="22"/>
     </row>
-    <row r="210" spans="13:13">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M210" s="22"/>
     </row>
-    <row r="211" spans="13:13">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M211" s="22"/>
     </row>
-    <row r="212" spans="13:13">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M212" s="22"/>
     </row>
-    <row r="213" spans="13:13">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M213" s="22"/>
     </row>
-    <row r="214" spans="13:13">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M214" s="22"/>
     </row>
-    <row r="215" spans="13:13">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M215" s="22"/>
     </row>
-    <row r="216" spans="13:13">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M216" s="22"/>
     </row>
-    <row r="217" spans="13:13">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M217" s="22"/>
     </row>
-    <row r="218" spans="13:13">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M218" s="22"/>
     </row>
-    <row r="219" spans="13:13">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M219" s="22"/>
     </row>
-    <row r="220" spans="13:13">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M220" s="22"/>
     </row>
-    <row r="221" spans="13:13">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M221" s="22"/>
     </row>
-    <row r="222" spans="13:13">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M222" s="22"/>
     </row>
-    <row r="223" spans="13:13">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M223" s="22"/>
     </row>
-    <row r="224" spans="13:13">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M224" s="22"/>
     </row>
-    <row r="225" spans="13:13">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M225" s="22"/>
     </row>
-    <row r="226" spans="13:13">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M226" s="22"/>
     </row>
-    <row r="227" spans="13:13">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M227" s="22"/>
     </row>
-    <row r="228" spans="13:13">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M228" s="22"/>
     </row>
-    <row r="229" spans="13:13">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M229" s="22"/>
     </row>
-    <row r="230" spans="13:13">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M230" s="22"/>
     </row>
-    <row r="231" spans="13:13">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M231" s="22"/>
     </row>
-    <row r="232" spans="13:13">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M232" s="22"/>
     </row>
-    <row r="233" spans="13:13">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M233" s="22"/>
     </row>
-    <row r="234" spans="13:13">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M234" s="22"/>
     </row>
-    <row r="235" spans="13:13">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M235" s="22"/>
     </row>
-    <row r="236" spans="13:13">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M236" s="22"/>
     </row>
-    <row r="237" spans="13:13">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M237" s="22"/>
     </row>
-    <row r="238" spans="13:13">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M238" s="22"/>
     </row>
-    <row r="239" spans="13:13">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M239" s="22"/>
     </row>
-    <row r="240" spans="13:13">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M240" s="22"/>
     </row>
-    <row r="241" spans="13:13">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M241" s="22"/>
     </row>
-    <row r="242" spans="13:13">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M242" s="22"/>
     </row>
-    <row r="243" spans="13:13">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M243" s="22"/>
     </row>
-    <row r="244" spans="13:13">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M244" s="22"/>
     </row>
-    <row r="245" spans="13:13">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M245" s="22"/>
     </row>
-    <row r="246" spans="13:13">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M246" s="22"/>
     </row>
-    <row r="247" spans="13:13">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M247" s="22"/>
     </row>
-    <row r="248" spans="13:13">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M248" s="22"/>
     </row>
-    <row r="249" spans="13:13">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M249" s="22"/>
     </row>
-    <row r="250" spans="13:13">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M250" s="22"/>
     </row>
-    <row r="251" spans="13:13">
+    <row r="251" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M251" s="22"/>
     </row>
-    <row r="252" spans="13:13">
+    <row r="252" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M252" s="22"/>
     </row>
-    <row r="253" spans="13:13">
+    <row r="253" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M253" s="22"/>
     </row>
-    <row r="254" spans="13:13">
+    <row r="254" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M254" s="22"/>
     </row>
-    <row r="255" spans="13:13">
+    <row r="255" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M255" s="22"/>
     </row>
-    <row r="256" spans="13:13">
+    <row r="256" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M256" s="22"/>
     </row>
-    <row r="257" spans="13:13">
+    <row r="257" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M257" s="22"/>
     </row>
-    <row r="258" spans="13:13">
+    <row r="258" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M258" s="22"/>
     </row>
-    <row r="259" spans="13:13">
+    <row r="259" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M259" s="22"/>
     </row>
-    <row r="260" spans="13:13">
+    <row r="260" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M260" s="22"/>
     </row>
-    <row r="261" spans="13:13">
+    <row r="261" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M261" s="22"/>
     </row>
-    <row r="262" spans="13:13">
+    <row r="262" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M262" s="22"/>
     </row>
-    <row r="263" spans="13:13">
+    <row r="263" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M263" s="22"/>
     </row>
-    <row r="264" spans="13:13">
+    <row r="264" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M264" s="22"/>
     </row>
-    <row r="265" spans="13:13">
+    <row r="265" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M265" s="22"/>
     </row>
-    <row r="266" spans="13:13">
+    <row r="266" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M266" s="22"/>
     </row>
-    <row r="267" spans="13:13">
+    <row r="267" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M267" s="22"/>
     </row>
-    <row r="268" spans="13:13">
+    <row r="268" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M268" s="22"/>
     </row>
-    <row r="269" spans="13:13">
+    <row r="269" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M269" s="22"/>
     </row>
-    <row r="270" spans="13:13">
+    <row r="270" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M270" s="22"/>
     </row>
-    <row r="271" spans="13:13">
+    <row r="271" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M271" s="22"/>
     </row>
-    <row r="272" spans="13:13">
+    <row r="272" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M272" s="22"/>
     </row>
-    <row r="273" spans="13:13">
+    <row r="273" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M273" s="22"/>
     </row>
-    <row r="274" spans="13:13">
+    <row r="274" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M274" s="22"/>
     </row>
-    <row r="275" spans="13:13">
+    <row r="275" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M275" s="22"/>
     </row>
-    <row r="276" spans="13:13">
+    <row r="276" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M276" s="22"/>
     </row>
-    <row r="277" spans="13:13">
+    <row r="277" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M277" s="22"/>
     </row>
-    <row r="278" spans="13:13">
+    <row r="278" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M278" s="22"/>
     </row>
-    <row r="279" spans="13:13">
+    <row r="279" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M279" s="22"/>
     </row>
-    <row r="280" spans="13:13">
+    <row r="280" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M280" s="22"/>
     </row>
-    <row r="281" spans="13:13">
+    <row r="281" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M281" s="22"/>
     </row>
-    <row r="282" spans="13:13">
+    <row r="282" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M282" s="22"/>
     </row>
-    <row r="283" spans="13:13">
+    <row r="283" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M283" s="22"/>
     </row>
-    <row r="284" spans="13:13">
+    <row r="284" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M284" s="22"/>
     </row>
-    <row r="285" spans="13:13">
+    <row r="285" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M285" s="22"/>
     </row>
-    <row r="286" spans="13:13">
+    <row r="286" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M286" s="22"/>
     </row>
-    <row r="287" spans="13:13">
+    <row r="287" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M287" s="22"/>
     </row>
-    <row r="288" spans="13:13">
+    <row r="288" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M288" s="22"/>
     </row>
-    <row r="289" spans="13:13">
+    <row r="289" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M289" s="22"/>
     </row>
-    <row r="290" spans="13:13">
+    <row r="290" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M290" s="22"/>
     </row>
-    <row r="291" spans="13:13">
+    <row r="291" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M291" s="22"/>
     </row>
-    <row r="292" spans="13:13">
+    <row r="292" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M292" s="22"/>
     </row>
-    <row r="293" spans="13:13">
+    <row r="293" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M293" s="22"/>
     </row>
-    <row r="294" spans="13:13">
+    <row r="294" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M294" s="22"/>
     </row>
-    <row r="295" spans="13:13">
+    <row r="295" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M295" s="22"/>
     </row>
-    <row r="296" spans="13:13">
+    <row r="296" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M296" s="22"/>
     </row>
-    <row r="297" spans="13:13">
+    <row r="297" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M297" s="22"/>
     </row>
-    <row r="298" spans="13:13">
+    <row r="298" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M298" s="22"/>
     </row>
-    <row r="299" spans="13:13">
+    <row r="299" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M299" s="22"/>
     </row>
-    <row r="300" spans="13:13">
+    <row r="300" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M300" s="22"/>
     </row>
-    <row r="301" spans="13:13">
+    <row r="301" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M301" s="22"/>
     </row>
-    <row r="302" spans="13:13">
+    <row r="302" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M302" s="22"/>
     </row>
-    <row r="303" spans="13:13">
+    <row r="303" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M303" s="22"/>
     </row>
-    <row r="304" spans="13:13">
+    <row r="304" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M304" s="22"/>
     </row>
-    <row r="305" spans="13:13">
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M305" s="22"/>
     </row>
-    <row r="306" spans="13:13">
+    <row r="306" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M306" s="22"/>
     </row>
-    <row r="307" spans="13:13">
+    <row r="307" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M307" s="22"/>
     </row>
-    <row r="308" spans="13:13">
+    <row r="308" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M308" s="22"/>
     </row>
-    <row r="309" spans="13:13">
+    <row r="309" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M309" s="22"/>
     </row>
-    <row r="310" spans="13:13">
+    <row r="310" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M310" s="22"/>
     </row>
-    <row r="311" spans="13:13">
+    <row r="311" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M311" s="22"/>
     </row>
-    <row r="312" spans="13:13">
+    <row r="312" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M312" s="22"/>
     </row>
-    <row r="313" spans="13:13">
+    <row r="313" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M313" s="22"/>
     </row>
-    <row r="314" spans="13:13">
+    <row r="314" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M314" s="22"/>
     </row>
-    <row r="315" spans="13:13">
+    <row r="315" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M315" s="22"/>
     </row>
-    <row r="316" spans="13:13">
+    <row r="316" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M316" s="22"/>
     </row>
-    <row r="317" spans="13:13">
+    <row r="317" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M317" s="22"/>
     </row>
-    <row r="318" spans="13:13">
+    <row r="318" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M318" s="22"/>
     </row>
-    <row r="319" spans="13:13">
+    <row r="319" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M319" s="22"/>
     </row>
-    <row r="320" spans="13:13">
+    <row r="320" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M320" s="22"/>
     </row>
-    <row r="321" spans="13:13">
+    <row r="321" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M321" s="22"/>
     </row>
-    <row r="322" spans="13:13">
+    <row r="322" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M322" s="22"/>
     </row>
-    <row r="323" spans="13:13">
+    <row r="323" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M323" s="22"/>
     </row>
-    <row r="324" spans="13:13">
+    <row r="324" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M324" s="22"/>
     </row>
-    <row r="325" spans="13:13">
+    <row r="325" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M325" s="22"/>
     </row>
-    <row r="326" spans="13:13">
+    <row r="326" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M326" s="22"/>
     </row>
-    <row r="327" spans="13:13">
+    <row r="327" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M327" s="22"/>
     </row>
-    <row r="328" spans="13:13">
+    <row r="328" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M328" s="22"/>
     </row>
-    <row r="329" spans="13:13">
+    <row r="329" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M329" s="22"/>
     </row>
-    <row r="330" spans="13:13">
+    <row r="330" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M330" s="22"/>
     </row>
-    <row r="331" spans="13:13">
+    <row r="331" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M331" s="22"/>
     </row>
-    <row r="332" spans="13:13">
+    <row r="332" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M332" s="22"/>
     </row>
-    <row r="333" spans="13:13">
+    <row r="333" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M333" s="22"/>
     </row>
-    <row r="334" spans="13:13">
+    <row r="334" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M334" s="22"/>
     </row>
-    <row r="335" spans="13:13">
+    <row r="335" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M335" s="22"/>
     </row>
-    <row r="336" spans="13:13">
+    <row r="336" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M336" s="22"/>
     </row>
-    <row r="337" spans="13:13">
+    <row r="337" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M337" s="22"/>
     </row>
-    <row r="338" spans="13:13">
+    <row r="338" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M338" s="22"/>
     </row>
-    <row r="339" spans="13:13">
+    <row r="339" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M339" s="22"/>
     </row>
-    <row r="340" spans="13:13">
+    <row r="340" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M340" s="22"/>
     </row>
-    <row r="341" spans="13:13">
+    <row r="341" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M341" s="22"/>
     </row>
-    <row r="342" spans="13:13">
+    <row r="342" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M342" s="22"/>
     </row>
-    <row r="343" spans="13:13">
+    <row r="343" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M343" s="22"/>
     </row>
-    <row r="344" spans="13:13">
+    <row r="344" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M344" s="22"/>
     </row>
-    <row r="345" spans="13:13">
+    <row r="345" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M345" s="22"/>
     </row>
-    <row r="346" spans="13:13">
+    <row r="346" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M346" s="22"/>
     </row>
-    <row r="347" spans="13:13">
+    <row r="347" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M347" s="22"/>
     </row>
-    <row r="348" spans="13:13">
+    <row r="348" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M348" s="22"/>
     </row>
-    <row r="349" spans="13:13">
+    <row r="349" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M349" s="22"/>
     </row>
-    <row r="350" spans="13:13">
+    <row r="350" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M350" s="22"/>
     </row>
-    <row r="351" spans="13:13">
+    <row r="351" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M351" s="22"/>
     </row>
-    <row r="352" spans="13:13">
+    <row r="352" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M352" s="22"/>
     </row>
-    <row r="353" spans="13:13">
+    <row r="353" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M353" s="22"/>
     </row>
-    <row r="354" spans="13:13">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M354" s="22"/>
     </row>
-    <row r="355" spans="13:13">
+    <row r="355" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M355" s="22"/>
     </row>
-    <row r="356" spans="13:13">
+    <row r="356" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M356" s="22"/>
     </row>
-    <row r="357" spans="13:13">
+    <row r="357" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M357" s="22"/>
     </row>
-    <row r="358" spans="13:13">
+    <row r="358" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M358" s="22"/>
     </row>
-    <row r="359" spans="13:13">
+    <row r="359" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M359" s="22"/>
     </row>
-    <row r="360" spans="13:13">
+    <row r="360" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M360" s="22"/>
     </row>
-    <row r="361" spans="13:13">
+    <row r="361" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M361" s="22"/>
     </row>
-    <row r="362" spans="13:13">
+    <row r="362" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M362" s="22"/>
     </row>
-    <row r="363" spans="13:13">
+    <row r="363" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M363" s="22"/>
     </row>
-    <row r="364" spans="13:13">
+    <row r="364" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M364" s="22"/>
     </row>
-    <row r="365" spans="13:13">
+    <row r="365" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M365" s="22"/>
     </row>
-    <row r="366" spans="13:13">
+    <row r="366" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M366" s="22"/>
     </row>
-    <row r="367" spans="13:13">
+    <row r="367" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M367" s="22"/>
     </row>
-    <row r="368" spans="13:13">
+    <row r="368" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M368" s="22"/>
     </row>
-    <row r="369" spans="13:13">
+    <row r="369" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M369" s="22"/>
     </row>
-    <row r="370" spans="13:13">
+    <row r="370" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M370" s="22"/>
     </row>
-    <row r="371" spans="13:13">
+    <row r="371" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M371" s="22"/>
     </row>
-    <row r="372" spans="13:13">
+    <row r="372" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M372" s="22"/>
     </row>
-    <row r="373" spans="13:13">
+    <row r="373" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M373" s="22"/>
     </row>
-    <row r="374" spans="13:13">
+    <row r="374" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M374" s="22"/>
     </row>
-    <row r="375" spans="13:13">
+    <row r="375" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M375" s="22"/>
     </row>
-    <row r="376" spans="13:13">
+    <row r="376" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M376" s="22"/>
     </row>
-    <row r="377" spans="13:13">
+    <row r="377" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M377" s="22"/>
     </row>
-    <row r="378" spans="13:13">
+    <row r="378" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M378" s="22"/>
     </row>
-    <row r="379" spans="13:13">
+    <row r="379" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M379" s="22"/>
     </row>
-    <row r="380" spans="13:13">
+    <row r="380" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M380" s="22"/>
     </row>
-    <row r="381" spans="13:13">
+    <row r="381" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M381" s="22"/>
     </row>
-    <row r="382" spans="13:13">
+    <row r="382" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M382" s="22"/>
     </row>
-    <row r="383" spans="13:13">
+    <row r="383" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M383" s="22"/>
     </row>
-    <row r="384" spans="13:13">
+    <row r="384" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M384" s="22"/>
     </row>
-    <row r="385" spans="13:13">
+    <row r="385" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M385" s="22"/>
     </row>
-    <row r="386" spans="13:13">
+    <row r="386" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M386" s="22"/>
     </row>
-    <row r="387" spans="13:13">
+    <row r="387" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M387" s="22"/>
     </row>
-    <row r="388" spans="13:13">
+    <row r="388" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M388" s="22"/>
     </row>
-    <row r="389" spans="13:13">
+    <row r="389" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M389" s="22"/>
     </row>
-    <row r="390" spans="13:13">
+    <row r="390" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M390" s="22"/>
     </row>
-    <row r="391" spans="13:13">
+    <row r="391" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M391" s="22"/>
     </row>
-    <row r="392" spans="13:13">
+    <row r="392" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M392" s="22"/>
     </row>
-    <row r="393" spans="13:13">
+    <row r="393" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M393" s="22"/>
     </row>
-    <row r="394" spans="13:13">
+    <row r="394" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M394" s="22"/>
     </row>
-    <row r="395" spans="13:13">
+    <row r="395" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M395" s="22"/>
     </row>
-    <row r="396" spans="13:13">
+    <row r="396" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M396" s="22"/>
     </row>
-    <row r="397" spans="13:13">
+    <row r="397" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M397" s="22"/>
     </row>
-    <row r="398" spans="13:13">
+    <row r="398" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M398" s="22"/>
     </row>
-    <row r="399" spans="13:13">
+    <row r="399" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M399" s="22"/>
     </row>
-    <row r="400" spans="13:13">
+    <row r="400" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M400" s="22"/>
     </row>
-    <row r="401" spans="13:13">
+    <row r="401" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M401" s="22"/>
     </row>
-    <row r="402" spans="13:13">
+    <row r="402" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M402" s="22"/>
     </row>
-    <row r="403" spans="13:13">
+    <row r="403" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M403" s="22"/>
     </row>
-    <row r="404" spans="13:13">
+    <row r="404" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M404" s="22"/>
     </row>
-    <row r="405" spans="13:13">
+    <row r="405" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M405" s="22"/>
     </row>
-    <row r="406" spans="13:13">
+    <row r="406" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M406" s="22"/>
     </row>
-    <row r="407" spans="13:13">
+    <row r="407" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M407" s="22"/>
     </row>
-    <row r="408" spans="13:13">
+    <row r="408" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M408" s="22"/>
     </row>
-    <row r="409" spans="13:13">
+    <row r="409" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M409" s="22"/>
     </row>
-    <row r="410" spans="13:13">
+    <row r="410" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M410" s="22"/>
     </row>
-    <row r="411" spans="13:13">
+    <row r="411" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M411" s="22"/>
     </row>
-    <row r="412" spans="13:13">
+    <row r="412" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M412" s="22"/>
     </row>
-    <row r="413" spans="13:13">
+    <row r="413" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M413" s="22"/>
     </row>
-    <row r="414" spans="13:13">
+    <row r="414" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M414" s="22"/>
     </row>
-    <row r="415" spans="13:13">
+    <row r="415" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M415" s="22"/>
     </row>
-    <row r="416" spans="13:13">
+    <row r="416" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M416" s="22"/>
     </row>
-    <row r="417" spans="13:13">
+    <row r="417" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M417" s="22"/>
     </row>
-    <row r="418" spans="13:13">
+    <row r="418" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M418" s="22"/>
     </row>
-    <row r="419" spans="13:13">
+    <row r="419" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M419" s="22"/>
     </row>
-    <row r="420" spans="13:13">
+    <row r="420" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M420" s="22"/>
     </row>
-    <row r="421" spans="13:13">
+    <row r="421" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M421" s="22"/>
     </row>
-    <row r="422" spans="13:13">
+    <row r="422" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M422" s="22"/>
     </row>
-    <row r="423" spans="13:13">
+    <row r="423" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M423" s="22"/>
     </row>
-    <row r="424" spans="13:13">
+    <row r="424" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M424" s="22"/>
     </row>
-    <row r="425" spans="13:13">
+    <row r="425" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M425" s="22"/>
     </row>
-    <row r="426" spans="13:13">
+    <row r="426" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M426" s="22"/>
     </row>
-    <row r="427" spans="13:13">
+    <row r="427" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M427" s="22"/>
     </row>
-    <row r="428" spans="13:13">
+    <row r="428" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M428" s="22"/>
     </row>
-    <row r="429" spans="13:13">
+    <row r="429" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M429" s="22"/>
     </row>
-    <row r="430" spans="13:13">
+    <row r="430" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M430" s="22"/>
     </row>
-    <row r="431" spans="13:13">
+    <row r="431" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M431" s="22"/>
     </row>
-    <row r="432" spans="13:13">
+    <row r="432" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M432" s="22"/>
     </row>
-    <row r="433" spans="13:13">
+    <row r="433" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M433" s="22"/>
     </row>
-    <row r="434" spans="13:13">
+    <row r="434" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M434" s="22"/>
     </row>
-    <row r="435" spans="13:13">
+    <row r="435" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M435" s="22"/>
     </row>
-    <row r="436" spans="13:13">
+    <row r="436" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M436" s="22"/>
     </row>
-    <row r="437" spans="13:13">
+    <row r="437" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M437" s="22"/>
     </row>
-    <row r="438" spans="13:13">
+    <row r="438" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M438" s="22"/>
     </row>
-    <row r="439" spans="13:13">
+    <row r="439" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M439" s="22"/>
     </row>
-    <row r="440" spans="13:13">
+    <row r="440" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M440" s="22"/>
     </row>
-    <row r="441" spans="13:13">
+    <row r="441" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M441" s="22"/>
     </row>
-    <row r="442" spans="13:13">
+    <row r="442" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M442" s="22"/>
     </row>
-    <row r="443" spans="13:13">
+    <row r="443" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M443" s="22"/>
     </row>
-    <row r="444" spans="13:13">
+    <row r="444" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M444" s="22"/>
     </row>
-    <row r="445" spans="13:13">
+    <row r="445" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M445" s="22"/>
     </row>
-    <row r="446" spans="13:13">
+    <row r="446" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M446" s="22"/>
     </row>
-    <row r="447" spans="13:13">
+    <row r="447" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M447" s="22"/>
     </row>
-    <row r="448" spans="13:13">
+    <row r="448" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M448" s="22"/>
     </row>
-    <row r="449" spans="13:13">
+    <row r="449" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M449" s="22"/>
     </row>
-    <row r="450" spans="13:13">
+    <row r="450" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M450" s="22"/>
     </row>
-    <row r="451" spans="13:13">
+    <row r="451" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M451" s="22"/>
     </row>
-    <row r="452" spans="13:13">
+    <row r="452" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M452" s="22"/>
     </row>
-    <row r="453" spans="13:13">
+    <row r="453" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M453" s="22"/>
     </row>
-    <row r="454" spans="13:13">
+    <row r="454" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M454" s="22"/>
     </row>
-    <row r="455" spans="13:13">
+    <row r="455" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M455" s="22"/>
     </row>
-    <row r="456" spans="13:13">
+    <row r="456" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M456" s="22"/>
     </row>
-    <row r="457" spans="13:13">
+    <row r="457" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M457" s="22"/>
     </row>
-    <row r="458" spans="13:13">
+    <row r="458" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M458" s="22"/>
     </row>
-    <row r="459" spans="13:13">
+    <row r="459" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M459" s="22"/>
     </row>
-    <row r="460" spans="13:13">
+    <row r="460" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M460" s="22"/>
     </row>
-    <row r="461" spans="13:13">
+    <row r="461" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M461" s="22"/>
     </row>
-    <row r="462" spans="13:13">
+    <row r="462" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M462" s="22"/>
     </row>
-    <row r="463" spans="13:13">
+    <row r="463" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M463" s="22"/>
     </row>
-    <row r="464" spans="13:13">
+    <row r="464" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M464" s="22"/>
     </row>
-    <row r="465" spans="13:13">
+    <row r="465" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M465" s="22"/>
     </row>
-    <row r="466" spans="13:13">
+    <row r="466" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M466" s="22"/>
     </row>
-    <row r="467" spans="13:13">
+    <row r="467" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M467" s="22"/>
     </row>
-    <row r="468" spans="13:13">
+    <row r="468" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M468" s="22"/>
     </row>
-    <row r="469" spans="13:13">
+    <row r="469" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M469" s="22"/>
     </row>
-    <row r="470" spans="13:13">
+    <row r="470" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M470" s="22"/>
     </row>
-    <row r="471" spans="13:13">
+    <row r="471" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M471" s="22"/>
     </row>
-    <row r="472" spans="13:13">
+    <row r="472" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M472" s="22"/>
     </row>
-    <row r="473" spans="13:13">
+    <row r="473" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M473" s="22"/>
     </row>
-    <row r="474" spans="13:13">
+    <row r="474" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M474" s="22"/>
     </row>
-    <row r="475" spans="13:13">
+    <row r="475" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M475" s="22"/>
     </row>
-    <row r="476" spans="13:13">
+    <row r="476" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M476" s="22"/>
     </row>
-    <row r="477" spans="13:13">
+    <row r="477" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M477" s="22"/>
     </row>
-    <row r="478" spans="13:13">
+    <row r="478" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M478" s="22"/>
     </row>
-    <row r="479" spans="13:13">
+    <row r="479" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M479" s="22"/>
     </row>
-    <row r="480" spans="13:13">
+    <row r="480" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M480" s="22"/>
     </row>
-    <row r="481" spans="13:13">
+    <row r="481" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M481" s="22"/>
     </row>
-    <row r="482" spans="13:13">
+    <row r="482" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M482" s="22"/>
     </row>
-    <row r="483" spans="13:13">
+    <row r="483" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M483" s="22"/>
     </row>
-    <row r="484" spans="13:13">
+    <row r="484" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M484" s="22"/>
     </row>
-    <row r="485" spans="13:13">
+    <row r="485" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M485" s="22"/>
     </row>
-    <row r="486" spans="13:13">
+    <row r="486" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M486" s="22"/>
     </row>
-    <row r="487" spans="13:13">
+    <row r="487" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M487" s="22"/>
     </row>
-    <row r="488" spans="13:13">
+    <row r="488" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M488" s="22"/>
     </row>
-    <row r="489" spans="13:13">
+    <row r="489" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M489" s="22"/>
     </row>
-    <row r="490" spans="13:13">
+    <row r="490" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M490" s="22"/>
     </row>
-    <row r="491" spans="13:13">
+    <row r="491" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M491" s="22"/>
     </row>
-    <row r="492" spans="13:13">
+    <row r="492" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M492" s="22"/>
     </row>
-    <row r="493" spans="13:13">
+    <row r="493" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M493" s="22"/>
     </row>
-    <row r="494" spans="13:13">
+    <row r="494" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M494" s="22"/>
     </row>
-    <row r="495" spans="13:13">
+    <row r="495" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M495" s="22"/>
     </row>
-    <row r="496" spans="13:13">
+    <row r="496" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M496" s="22"/>
     </row>
-    <row r="497" spans="13:13">
+    <row r="497" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M497" s="22"/>
     </row>
-    <row r="498" spans="13:13">
+    <row r="498" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M498" s="22"/>
     </row>
-    <row r="499" spans="13:13">
+    <row r="499" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M499" s="22"/>
     </row>
-    <row r="500" spans="13:13">
+    <row r="500" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M500" s="22"/>
     </row>
-    <row r="501" spans="13:13">
+    <row r="501" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M501" s="22"/>
     </row>
-    <row r="502" spans="13:13">
+    <row r="502" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M502" s="22"/>
     </row>
-    <row r="503" spans="13:13">
+    <row r="503" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M503" s="22"/>
     </row>
-    <row r="504" spans="13:13">
+    <row r="504" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M504" s="22"/>
     </row>
-    <row r="505" spans="13:13">
+    <row r="505" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M505" s="22"/>
     </row>
-    <row r="506" spans="13:13">
+    <row r="506" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M506" s="22"/>
     </row>
-    <row r="507" spans="13:13">
+    <row r="507" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M507" s="22"/>
     </row>
-    <row r="508" spans="13:13">
+    <row r="508" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M508" s="22"/>
     </row>
-    <row r="509" spans="13:13">
+    <row r="509" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M509" s="22"/>
     </row>
-    <row r="510" spans="13:13">
+    <row r="510" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M510" s="22"/>
     </row>
-    <row r="511" spans="13:13">
+    <row r="511" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M511" s="22"/>
     </row>
-    <row r="512" spans="13:13">
+    <row r="512" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M512" s="22"/>
     </row>
-    <row r="513" spans="13:13">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M513" s="22"/>
     </row>
-    <row r="514" spans="13:13">
+    <row r="514" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M514" s="22"/>
     </row>
-    <row r="515" spans="13:13">
+    <row r="515" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M515" s="22"/>
     </row>
-    <row r="516" spans="13:13">
+    <row r="516" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M516" s="22"/>
     </row>
-    <row r="517" spans="13:13">
+    <row r="517" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M517" s="22"/>
     </row>
-    <row r="518" spans="13:13">
+    <row r="518" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M518" s="22"/>
     </row>
-    <row r="519" spans="13:13">
+    <row r="519" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M519" s="22"/>
     </row>
-    <row r="520" spans="13:13">
+    <row r="520" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M520" s="22"/>
     </row>
-    <row r="521" spans="13:13">
+    <row r="521" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M521" s="22"/>
     </row>
-    <row r="522" spans="13:13">
+    <row r="522" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M522" s="22"/>
     </row>
-    <row r="523" spans="13:13">
+    <row r="523" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M523" s="22"/>
     </row>
-    <row r="524" spans="13:13">
+    <row r="524" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M524" s="22"/>
     </row>
-    <row r="525" spans="13:13">
+    <row r="525" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M525" s="22"/>
     </row>
-    <row r="526" spans="13:13">
+    <row r="526" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M526" s="22"/>
     </row>
-    <row r="527" spans="13:13">
+    <row r="527" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M527" s="22"/>
     </row>
-    <row r="528" spans="13:13">
+    <row r="528" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M528" s="22"/>
     </row>
-    <row r="529" spans="13:13">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M529" s="22"/>
     </row>
-    <row r="530" spans="13:13">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M530" s="22"/>
     </row>
-    <row r="531" spans="13:13">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M531" s="22"/>
     </row>
-    <row r="532" spans="13:13">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M532" s="22"/>
     </row>
-    <row r="533" spans="13:13">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M533" s="22"/>
     </row>
-    <row r="534" spans="13:13">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M534" s="22"/>
     </row>
-    <row r="535" spans="13:13">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M535" s="22"/>
     </row>
-    <row r="536" spans="13:13">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M536" s="22"/>
     </row>
-    <row r="537" spans="13:13">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M537" s="22"/>
     </row>
-    <row r="538" spans="13:13">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M538" s="22"/>
     </row>
-    <row r="539" spans="13:13">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M539" s="22"/>
     </row>
-    <row r="540" spans="13:13">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M540" s="22"/>
     </row>
-    <row r="541" spans="13:13">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M541" s="22"/>
     </row>
-    <row r="542" spans="13:13">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M542" s="22"/>
     </row>
-    <row r="543" spans="13:13">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M543" s="22"/>
     </row>
-    <row r="544" spans="13:13">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M544" s="22"/>
     </row>
-    <row r="545" spans="13:13">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M545" s="22"/>
     </row>
-    <row r="546" spans="13:13">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M546" s="22"/>
     </row>
-    <row r="547" spans="13:13">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M547" s="22"/>
     </row>
-    <row r="548" spans="13:13">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M548" s="22"/>
     </row>
-    <row r="549" spans="13:13">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M549" s="22"/>
     </row>
-    <row r="550" spans="13:13">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M550" s="22"/>
     </row>
-    <row r="551" spans="13:13">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M551" s="22"/>
     </row>
-    <row r="552" spans="13:13">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M552" s="22"/>
     </row>
-    <row r="553" spans="13:13">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M553" s="22"/>
     </row>
-    <row r="554" spans="13:13">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M554" s="22"/>
     </row>
-    <row r="555" spans="13:13">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M555" s="22"/>
     </row>
-    <row r="556" spans="13:13">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M556" s="22"/>
     </row>
-    <row r="557" spans="13:13">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M557" s="22"/>
     </row>
-    <row r="558" spans="13:13">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M558" s="22"/>
     </row>
-    <row r="559" spans="13:13">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M559" s="22"/>
     </row>
-    <row r="560" spans="13:13">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M560" s="22"/>
     </row>
-    <row r="561" spans="13:13">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M561" s="22"/>
     </row>
-    <row r="562" spans="13:13">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M562" s="22"/>
     </row>
-    <row r="563" spans="13:13">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M563" s="22"/>
     </row>
-    <row r="564" spans="13:13">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M564" s="22"/>
     </row>
-    <row r="565" spans="13:13">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M565" s="22"/>
     </row>
-    <row r="566" spans="13:13">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M566" s="22"/>
     </row>
-    <row r="567" spans="13:13">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M567" s="22"/>
     </row>
-    <row r="568" spans="13:13">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M568" s="22"/>
     </row>
-    <row r="569" spans="13:13">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M569" s="22"/>
     </row>
-    <row r="570" spans="13:13">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M570" s="22"/>
     </row>
-    <row r="571" spans="13:13">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M571" s="22"/>
     </row>
-    <row r="572" spans="13:13">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M572" s="22"/>
     </row>
-    <row r="573" spans="13:13">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M573" s="22"/>
     </row>
-    <row r="574" spans="13:13">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M574" s="22"/>
     </row>
-    <row r="575" spans="13:13">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M575" s="22"/>
     </row>
-    <row r="576" spans="13:13">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M576" s="22"/>
     </row>
-    <row r="577" spans="13:13">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M577" s="22"/>
     </row>
-    <row r="578" spans="13:13">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M578" s="22"/>
     </row>
-    <row r="579" spans="13:13">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M579" s="22"/>
     </row>
-    <row r="580" spans="13:13">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M580" s="22"/>
     </row>
-    <row r="581" spans="13:13">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M581" s="22"/>
     </row>
-    <row r="582" spans="13:13">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M582" s="22"/>
     </row>
-    <row r="583" spans="13:13">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M583" s="22"/>
     </row>
-    <row r="584" spans="13:13">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M584" s="22"/>
     </row>
-    <row r="585" spans="13:13">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M585" s="22"/>
     </row>
-    <row r="586" spans="13:13">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M586" s="22"/>
     </row>
-    <row r="587" spans="13:13">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M587" s="22"/>
     </row>
-    <row r="588" spans="13:13">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M588" s="22"/>
     </row>
-    <row r="589" spans="13:13">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M589" s="22"/>
     </row>
-    <row r="590" spans="13:13">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M590" s="22"/>
     </row>
-    <row r="591" spans="13:13">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M591" s="22"/>
     </row>
-    <row r="592" spans="13:13">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M592" s="22"/>
     </row>
-    <row r="593" spans="13:13">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M593" s="22"/>
     </row>
-    <row r="594" spans="13:13">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M594" s="22"/>
     </row>
-    <row r="595" spans="13:13">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M595" s="22"/>
     </row>
-    <row r="596" spans="13:13">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M596" s="22"/>
     </row>
-    <row r="597" spans="13:13">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M597" s="22"/>
     </row>
-    <row r="598" spans="13:13">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M598" s="22"/>
     </row>
-    <row r="599" spans="13:13">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M599" s="22"/>
     </row>
-    <row r="600" spans="13:13">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M600" s="22"/>
     </row>
-    <row r="601" spans="13:13">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M601" s="22"/>
     </row>
-    <row r="602" spans="13:13">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M602" s="22"/>
     </row>
   </sheetData>
